--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44621</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,14 +766,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 39613-2023</t>
+          <t>A 39620-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>45163</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,39 +786,133 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>15.2</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
         <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Grönfink
+Duvhök
+Talltita
+Gröngöling
+Grönsiska
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39620-2023 artfynd.xlsx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39620-2023 karta.png", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39620-2023 FSC-klagomål.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39620-2023 FSC-klagomål mail.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39620-2023 tillsynsbegäran.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39620-2023 tillsynsbegäran mail.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39620-2023 prioriterade fågelarter.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 39613-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SIGTUNA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Talltita
 Kornig nållav
@@ -828,126 +922,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39613-2023 artfynd.xlsx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39613-2023 karta.png", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39613-2023 FSC-klagomål.docx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39613-2023 FSC-klagomål mail.docx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39613-2023 tillsynsbegäran.docx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39613-2023 tillsynsbegäran mail.docx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39613-2023 prioriterade fågelarter.docx", "A 39613-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 39620-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45163</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SIGTUNA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Grönfink
-Duvhök
-Talltita
-Gröngöling
-Grönsiska
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39620-2023 artfynd.xlsx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39620-2023 karta.png", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39620-2023 FSC-klagomål.docx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39620-2023 FSC-klagomål mail.docx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39620-2023 tillsynsbegäran.docx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39620-2023 tillsynsbegäran mail.docx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39620-2023 prioriterade fågelarter.docx", "A 39620-2023")</f>
         <v/>
       </c>
     </row>
@@ -961,7 +961,7 @@
         <v>45607</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44265</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>45786.53068287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44791</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45280</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>46043</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,14 +1499,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 33751-2024</t>
+          <t>A 51189-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45520</v>
+        <v>44865</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,28 +1518,23 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>1.5</v>
+        <v>32.8</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1551,56 +1546,52 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 33751-2024 artfynd.xlsx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 51189-2022 artfynd.xlsx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 33751-2024 karta.png", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 51189-2022 karta.png", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 33751-2024 FSC-klagomål.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 51189-2022 FSC-klagomål.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 33751-2024 FSC-klagomål mail.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 51189-2022 FSC-klagomål mail.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 33751-2024 tillsynsbegäran.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 51189-2022 tillsynsbegäran.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 33751-2024 tillsynsbegäran mail.docx", "A 33751-2024")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 33751-2024 prioriterade fågelarter.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 51189-2022 tillsynsbegäran mail.docx", "A 51189-2022")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 39716-2023</t>
+          <t>A 64345-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45166</v>
+        <v>45280</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1613,7 +1604,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1622,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1637,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1647,49 +1638,49 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Hornuggla</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39716-2023 artfynd.xlsx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 64345-2023 artfynd.xlsx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39716-2023 karta.png", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 64345-2023 karta.png", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39716-2023 FSC-klagomål.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 64345-2023 FSC-klagomål.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39716-2023 FSC-klagomål mail.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 64345-2023 FSC-klagomål mail.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39716-2023 tillsynsbegäran.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 64345-2023 tillsynsbegäran.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39716-2023 tillsynsbegäran mail.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 64345-2023 tillsynsbegäran mail.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39716-2023 prioriterade fågelarter.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 64345-2023 prioriterade fågelarter.docx", "A 64345-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 64345-2023</t>
+          <t>A 39716-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45280</v>
+        <v>45166</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1693,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1711,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1726,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1736,49 +1727,49 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Hornuggla</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 64345-2023 artfynd.xlsx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39716-2023 artfynd.xlsx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 64345-2023 karta.png", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39716-2023 karta.png", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 64345-2023 FSC-klagomål.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39716-2023 FSC-klagomål.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 64345-2023 FSC-klagomål mail.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39716-2023 FSC-klagomål mail.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 64345-2023 tillsynsbegäran.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39716-2023 tillsynsbegäran.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 64345-2023 tillsynsbegäran mail.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39716-2023 tillsynsbegäran mail.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 64345-2023 prioriterade fågelarter.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39716-2023 prioriterade fågelarter.docx", "A 39716-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 51189-2022</t>
+          <t>A 33751-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44865</v>
+        <v>45520</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,23 +1781,28 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>32.8</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1818,38 +1814,42 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 51189-2022 artfynd.xlsx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 33751-2024 artfynd.xlsx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 51189-2022 karta.png", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 33751-2024 karta.png", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 51189-2022 FSC-klagomål.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 33751-2024 FSC-klagomål.docx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 51189-2022 FSC-klagomål mail.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 33751-2024 FSC-klagomål mail.docx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 51189-2022 tillsynsbegäran.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 33751-2024 tillsynsbegäran.docx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 51189-2022 tillsynsbegäran mail.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 33751-2024 tillsynsbegäran mail.docx", "A 33751-2024")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 33751-2024 prioriterade fågelarter.docx", "A 33751-2024")</f>
         <v/>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
         <v>45020</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>44618.61763888889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44468</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44264</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,14 +2131,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 74167-2021</t>
+          <t>A 11459-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44557</v>
+        <v>44264.31767361111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2150,8 +2150,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2188,14 +2193,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 11459-2021</t>
+          <t>A 74167-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44264.31767361111</v>
+        <v>44557</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2207,13 +2212,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>44385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44265.30173611111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44776</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44263.32083333333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2721,14 +2721,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 19294-2025</t>
+          <t>A 49592-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45769.56142361111</v>
+        <v>45211.68196759259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>7.7</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2778,14 +2778,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 12900-2022</t>
+          <t>A 25459-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44642</v>
+        <v>45089</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2797,8 +2797,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>5.6</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2831,38 +2836,18 @@
         <v>0</v>
       </c>
       <c r="R31" s="2" t="inlineStr"/>
-      <c r="U31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/knärot/A 12900-2022 karta knärot.png", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 12900-2022 FSC-klagomål.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 12900-2022 FSC-klagomål mail.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 12900-2022 tillsynsbegäran.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 12900-2022 tillsynsbegäran mail.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 60935-2023</t>
+          <t>A 40643-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45261</v>
+        <v>45558</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2875,7 +2860,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2912,14 +2897,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 58619-2023</t>
+          <t>A 6826-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45251.54119212963</v>
+        <v>45700.73123842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2932,7 +2917,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2969,14 +2954,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 49592-2023</t>
+          <t>A 9856-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45211.68196759259</v>
+        <v>45363</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2989,7 +2974,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3026,14 +3011,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 20957-2023</t>
+          <t>A 37392-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45061</v>
+        <v>45540</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3046,7 +3031,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3083,14 +3068,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 11718-2021</t>
+          <t>A 24636-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44265</v>
+        <v>45084</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3102,13 +3087,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3145,14 +3125,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 5142-2024</t>
+          <t>A 60934-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45330</v>
+        <v>45261.42775462963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3165,7 +3145,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3202,14 +3182,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 32424-2023</t>
+          <t>A 10790-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45110</v>
+        <v>44989.32980324074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3222,7 +3202,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3259,14 +3239,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 43700-2023</t>
+          <t>A 24967-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45187</v>
+        <v>45461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3279,7 +3259,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3316,14 +3296,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 57879-2025</t>
+          <t>A 26256-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45981.66293981481</v>
+        <v>45805.58125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3336,7 +3316,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3373,14 +3353,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 57881-2025</t>
+          <t>A 862-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45981.66450231482</v>
+        <v>44571</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3393,7 +3373,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>8.1</v>
+        <v>2.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3430,14 +3410,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 57871-2025</t>
+          <t>A 41693-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45981.6530787037</v>
+        <v>44827</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3449,8 +3429,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3487,14 +3472,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41841-2025</t>
+          <t>A 41949-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45902.72109953704</v>
+        <v>45903.45309027778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3507,7 +3492,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3544,14 +3529,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 41957-2025</t>
+          <t>A 41963-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45903.46525462963</v>
+        <v>45903.47229166667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3564,7 +3549,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3608,7 +3593,7 @@
         <v>45903.45920138889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3658,14 +3643,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 41949-2025</t>
+          <t>A 41957-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45903.45309027778</v>
+        <v>45903.46525462963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3678,7 +3663,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3715,14 +3700,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 41963-2025</t>
+          <t>A 41841-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45903.47229166667</v>
+        <v>45902.72109953704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3735,7 +3720,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3772,14 +3757,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 19288-2025</t>
+          <t>A 12931-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45769</v>
+        <v>44642</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3791,8 +3776,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>14.5</v>
+        <v>1.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3829,14 +3819,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 59168-2022</t>
+          <t>A 29193-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44904.48028935185</v>
+        <v>45822.70847222222</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3849,7 +3839,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>7.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3886,14 +3876,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 72530-2021</t>
+          <t>A 74170-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44546</v>
+        <v>44557</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3906,7 +3896,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3943,14 +3933,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 41702-2023</t>
+          <t>A 28752-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45176</v>
+        <v>45478.57900462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3962,13 +3952,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4005,14 +3990,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 2675-2026</t>
+          <t>A 47392-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>46037.64938657408</v>
+        <v>45930.60368055556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4025,7 +4010,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>7.3</v>
+        <v>3.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4062,14 +4047,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 2628-2026</t>
+          <t>A 41702-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46037.60576388889</v>
+        <v>45176</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4081,8 +4066,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4119,14 +4109,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 2663-2026</t>
+          <t>A 36179-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>46037.64071759259</v>
+        <v>44803</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4139,7 +4129,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>16.7</v>
+        <v>6.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4176,14 +4166,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 47392-2025</t>
+          <t>A 17286-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45930.60368055556</v>
+        <v>44678</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4196,7 +4186,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4233,14 +4223,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 61576-2024</t>
+          <t>A 49916-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45646.6218287037</v>
+        <v>45940.62260416667</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4253,7 +4243,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>8.9</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4290,14 +4280,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38276-2023</t>
+          <t>A 42572-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45160</v>
+        <v>45565.64217592592</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4310,7 +4300,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>18.1</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4347,14 +4337,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 45233-2024</t>
+          <t>A 28681-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45575</v>
+        <v>45819.68207175926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4367,7 +4357,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4404,14 +4394,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 3673-2026</t>
+          <t>A 45233-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>46043</v>
+        <v>45575</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4424,7 +4414,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4461,14 +4451,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 20375-2023</t>
+          <t>A 59957-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45054</v>
+        <v>45257</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4480,8 +4470,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4518,14 +4513,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 4788-2026</t>
+          <t>A 11718-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>46048.56197916667</v>
+        <v>44265</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4537,8 +4532,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4575,14 +4575,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 49916-2025</t>
+          <t>A 31695-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45940.62260416667</v>
+        <v>44776</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4594,8 +4594,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4632,14 +4637,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 51770-2023</t>
+          <t>A 17320-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45222.71855324074</v>
+        <v>45035.54853009259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4652,7 +4657,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4689,14 +4694,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 59165-2022</t>
+          <t>A 12900-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44904.4783912037</v>
+        <v>44642</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4709,7 +4714,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4742,18 +4747,38 @@
         <v>0</v>
       </c>
       <c r="R64" s="2" t="inlineStr"/>
+      <c r="U64">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/knärot/A 12900-2022 karta knärot.png", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="V64">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 12900-2022 FSC-klagomål.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="W64">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 12900-2022 FSC-klagomål mail.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="X64">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 12900-2022 tillsynsbegäran.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="Y64">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 12900-2022 tillsynsbegäran mail.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 5175-2026</t>
+          <t>A 5142-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46049.64638888889</v>
+        <v>45330</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4766,7 +4791,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4803,14 +4828,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 20960-2023</t>
+          <t>A 20957-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
         <v>45061</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4823,7 +4848,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4860,14 +4885,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 74170-2021</t>
+          <t>A 8673-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44557</v>
+        <v>45712.4272337963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4879,8 +4904,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>9.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4917,14 +4947,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28851-2022</t>
+          <t>A 59165-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44749.47957175926</v>
+        <v>44904.4783912037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4937,7 +4967,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4974,14 +5004,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 60969-2025</t>
+          <t>A 28851-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45996</v>
+        <v>44749.47957175926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4994,7 +5024,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5031,14 +5061,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 60949-2025</t>
+          <t>A 9120-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45996</v>
+        <v>45713.82875</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5050,8 +5080,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>21.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5088,14 +5123,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 6893-2026</t>
+          <t>A 61937-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46057.47671296296</v>
+        <v>44502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5108,7 +5143,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>14.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5145,14 +5180,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 7229-2026</t>
+          <t>A 57871-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46058.57027777778</v>
+        <v>45981.6530787037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5165,7 +5200,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5202,14 +5237,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 17320-2023</t>
+          <t>A 57879-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45035.54853009259</v>
+        <v>45981.66293981481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5222,7 +5257,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5259,14 +5294,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 42572-2024</t>
+          <t>A 57881-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45565.64217592592</v>
+        <v>45981.66450231482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5279,7 +5314,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>8.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5316,14 +5351,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 56796-2022</t>
+          <t>A 19288-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44894.42490740741</v>
+        <v>45769</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5336,7 +5371,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.2</v>
+        <v>14.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5373,14 +5408,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 7214-2022</t>
+          <t>A 45319-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44606.33935185185</v>
+        <v>45191</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5392,8 +5427,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5430,14 +5470,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 45319-2023</t>
+          <t>A 2663-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45191</v>
+        <v>46037.64071759259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5449,13 +5489,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>2.7</v>
+        <v>16.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5492,14 +5527,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 15428-2021</t>
+          <t>A 2675-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44285</v>
+        <v>46037.64938657408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5511,13 +5546,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>4.9</v>
+        <v>7.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5554,14 +5584,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 40643-2024</t>
+          <t>A 19294-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45558</v>
+        <v>45769.56142361111</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5574,7 +5604,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.7</v>
+        <v>7.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5611,14 +5641,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 32420-2023</t>
+          <t>A 2628-2026</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45110</v>
+        <v>46037.60576388889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5631,7 +5661,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5668,14 +5698,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 32426-2023</t>
+          <t>A 19311-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45110</v>
+        <v>45769.57142361111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5688,7 +5718,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5725,14 +5755,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46757-2023</t>
+          <t>A 60935-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45198</v>
+        <v>45261</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5745,7 +5775,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.3</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5782,14 +5812,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 17286-2022</t>
+          <t>A 3673-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44678</v>
+        <v>46043</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5802,7 +5832,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5839,14 +5869,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 10790-2023</t>
+          <t>A 32420-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44989.32980324074</v>
+        <v>45110</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5859,7 +5889,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5896,14 +5926,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28752-2024</t>
+          <t>A 32426-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45478.57900462963</v>
+        <v>45110</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5916,7 +5946,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5953,14 +5983,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 25452-2023</t>
+          <t>A 15428-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45089</v>
+        <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5978,7 +6008,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6015,14 +6045,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 25459-2023</t>
+          <t>A 4788-2026</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45089</v>
+        <v>46048.56197916667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6034,13 +6064,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6077,14 +6102,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 61937-2021</t>
+          <t>A 5175-2026</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44502</v>
+        <v>46049.64638888889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6097,7 +6122,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>14.7</v>
+        <v>1.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6134,14 +6159,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 862-2022</t>
+          <t>A 60949-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44571</v>
+        <v>45996</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6154,7 +6179,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.4</v>
+        <v>21.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6191,14 +6216,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 24636-2023</t>
+          <t>A 20375-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45084</v>
+        <v>45054</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6211,7 +6236,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6248,14 +6273,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 9856-2024</t>
+          <t>A 60969-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45363</v>
+        <v>45996</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6268,7 +6293,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6305,14 +6330,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 273-2025</t>
+          <t>A 38276-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45653</v>
+        <v>45160</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6325,7 +6350,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>18.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6362,14 +6387,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 31695-2022</t>
+          <t>A 2496-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44776</v>
+        <v>45313</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6387,7 +6412,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6424,14 +6449,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 59957-2023</t>
+          <t>A 6893-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45257</v>
+        <v>46057.47671296296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6443,13 +6468,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6486,14 +6506,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 2496-2024</t>
+          <t>A 59168-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45313</v>
+        <v>44904.48028935185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6505,13 +6525,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6548,14 +6563,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 19311-2025</t>
+          <t>A 72530-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45769.57142361111</v>
+        <v>44546</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6568,7 +6583,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.4</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6605,14 +6620,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 35966-2024</t>
+          <t>A 7229-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45533</v>
+        <v>46058.57027777778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6625,7 +6640,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6662,14 +6677,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 36179-2022</t>
+          <t>A 20960-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44803</v>
+        <v>45061</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6682,7 +6697,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6719,14 +6734,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 36181-2022</t>
+          <t>A 32424-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44803</v>
+        <v>45110</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6739,7 +6754,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6776,14 +6791,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 6826-2025</t>
+          <t>A 61576-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45700.73123842593</v>
+        <v>45646.6218287037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6796,7 +6811,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>8.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6833,14 +6848,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 11285-2023</t>
+          <t>A 58619-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44992</v>
+        <v>45251.54119212963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6853,7 +6868,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6890,14 +6905,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 60922-2023</t>
+          <t>A 43700-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45261.40866898148</v>
+        <v>45187</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6910,7 +6925,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6947,14 +6962,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 12931-2022</t>
+          <t>A 56796-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44642</v>
+        <v>44894.42490740741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6966,13 +6981,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.8</v>
+        <v>5.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7009,14 +7019,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 41693-2022</t>
+          <t>A 36181-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44827</v>
+        <v>44803</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7028,13 +7038,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7071,14 +7076,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 61589-2024</t>
+          <t>A 60922-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45646.62961805556</v>
+        <v>45261.40866898148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7091,7 +7096,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7128,14 +7133,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 37392-2024</t>
+          <t>A 273-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45540</v>
+        <v>45653</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7148,7 +7153,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7192,7 +7197,7 @@
         <v>45162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7242,14 +7247,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 8673-2025</t>
+          <t>A 7214-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45712.4272337963</v>
+        <v>44606.33935185185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7261,13 +7266,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>9.6</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7304,14 +7304,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 31684-2022</t>
+          <t>A 11285-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44776</v>
+        <v>44992</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7323,13 +7323,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7366,14 +7361,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 60865-2024</t>
+          <t>A 25452-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45644.69387731481</v>
+        <v>45089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7385,8 +7380,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7423,14 +7423,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 9120-2025</t>
+          <t>A 60865-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45713.82875</v>
+        <v>45644.69387731481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7442,13 +7442,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>9.699999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7485,14 +7480,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 24967-2024</t>
+          <t>A 16734-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45461</v>
+        <v>45754.53179398148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7505,7 +7500,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7542,14 +7537,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 16734-2025</t>
+          <t>A 51770-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45754.53179398148</v>
+        <v>45222.71855324074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7562,7 +7557,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7599,14 +7594,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 43158-2024</t>
+          <t>A 31684-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45567</v>
+        <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7618,8 +7613,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7656,14 +7656,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 24946-2024</t>
+          <t>A 35966-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45461</v>
+        <v>45533</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>12.5</v>
+        <v>0.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7713,14 +7713,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 3890-2025</t>
+          <t>A 61589-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45684.36896990741</v>
+        <v>45646.62961805556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7770,14 +7770,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 21513-2025</t>
+          <t>A 46757-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45782.63189814815</v>
+        <v>45198</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7827,14 +7827,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 48375-2024</t>
+          <t>A 3890-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45590.58184027778</v>
+        <v>45684.36896990741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7846,13 +7846,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7889,14 +7884,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 22402-2025</t>
+          <t>A 43158-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45786.53287037037</v>
+        <v>45567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7909,7 +7904,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7946,14 +7941,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 35961-2024</t>
+          <t>A 24946-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45533</v>
+        <v>45461</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7966,7 +7961,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.6</v>
+        <v>12.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8003,14 +7998,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 19031-2024</t>
+          <t>A 21513-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45427</v>
+        <v>45782.63189814815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8023,7 +8018,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8060,14 +8055,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 24105-2025</t>
+          <t>A 19031-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45796.60096064815</v>
+        <v>45427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8080,7 +8075,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8117,14 +8112,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 60934-2023</t>
+          <t>A 35961-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45261.42775462963</v>
+        <v>45533</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8137,7 +8132,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8174,14 +8169,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 26256-2025</t>
+          <t>A 22402-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45805.58125</v>
+        <v>45786.53287037037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8194,7 +8189,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>7.5</v>
+        <v>4.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8231,14 +8226,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 29193-2025</t>
+          <t>A 48375-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45822.70847222222</v>
+        <v>45590.58184027778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8250,8 +8245,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>7.3</v>
+        <v>4.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8288,14 +8288,14 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 28681-2025</t>
+          <t>A 24105-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45819.68207175926</v>
+        <v>45796.60096064815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44621</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>45163</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>45607</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44265</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>45786.53068287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44791</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45280</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>46043</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>44865</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45280</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>45166</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45520</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>45020</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>44618.61763888889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44468</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44264</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44264.31767361111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44557</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44265.30173611111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44776</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44263.32083333333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>45211.68196759259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>45089</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>45558</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>45700.73123842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>45363</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>45540</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45084</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>45261.42775462963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44989.32980324074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45805.58125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44571</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44827</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45903.45309027778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45903.47229166667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45903.45920138889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>45903.46525462963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>45902.72109953704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44642</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45822.70847222222</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>44557</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45478.57900462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45930.60368055556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45176</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>44803</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>44678</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45940.62260416667</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45565.64217592592</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45819.68207175926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45575</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45257</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44265</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>44776</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>45035.54853009259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>44642</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45330</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45061</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>45712.4272337963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>44904.4783912037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44749.47957175926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45713.82875</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>44502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>45981.6530787037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>45981.66293981481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>45981.66450231482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>45769</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>45191</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>46037.64071759259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>46037.64938657408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45769.56142361111</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>46037.60576388889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45769.57142361111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45261</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>46043</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>45110</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45110</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>46048.56197916667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>46049.64638888889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>45996</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45054</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45996</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>45160</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>45313</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>46057.47671296296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44904.48028935185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44546</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>46058.57027777778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>45061</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>45110</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>45646.6218287037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>45251.54119212963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>45187</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>44894.42490740741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44803</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>45261.40866898148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>45653</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>45162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44606.33935185185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44992</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>45089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>45644.69387731481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>45754.53179398148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>45222.71855324074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>45533</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>45646.62961805556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45198</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45684.36896990741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>45567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>45461</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>45782.63189814815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>45427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>45533</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>45786.53287037037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>45590.58184027778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>45796.60096064815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44621</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>45163</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>45607</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44265</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>45786.53068287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44791</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45280</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>46043</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>44865</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45280</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>45166</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45520</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>45020</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>44618.61763888889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44468</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44264</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44264.31767361111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44557</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44265.30173611111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44776</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44263.32083333333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>45211.68196759259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>45089</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>45558</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>45700.73123842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>45363</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>45540</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45084</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>45261.42775462963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44989.32980324074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45805.58125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44571</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44827</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45903.45309027778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45903.47229166667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45903.45920138889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>45903.46525462963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>45902.72109953704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44642</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45822.70847222222</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>44557</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45478.57900462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45930.60368055556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45176</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>44803</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>44678</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45940.62260416667</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45565.64217592592</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45819.68207175926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45575</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45257</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44265</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>44776</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>45035.54853009259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>44642</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45330</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45061</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>45712.4272337963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>44904.4783912037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44749.47957175926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45713.82875</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>44502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>45981.6530787037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>45981.66293981481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>45981.66450231482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>45769</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>45191</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>46037.64071759259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>46037.64938657408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45769.56142361111</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>46037.60576388889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45769.57142361111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45261</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>46043</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>45110</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45110</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>46048.56197916667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>46049.64638888889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>45996</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45054</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45996</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>45160</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>45313</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>46057.47671296296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44904.48028935185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44546</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>46058.57027777778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>45061</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>45110</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>45646.6218287037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>45251.54119212963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>45187</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>44894.42490740741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44803</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>45261.40866898148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>45653</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>45162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44606.33935185185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44992</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>45089</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>45644.69387731481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>45754.53179398148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>45222.71855324074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>45533</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>45646.62961805556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45198</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45684.36896990741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>45567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>45461</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>45782.63189814815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>45427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>45533</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>45786.53287037037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>45590.58184027778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>45796.60096064815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z126"/>
+  <dimension ref="A1:Z127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44621</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,14 +766,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 39620-2023</t>
+          <t>A 39613-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>45163</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,39 +786,133 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>15.2</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Talltita
+Kornig nållav
+Grönsiska
+Kungsfågel
+Vanlig padda
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39613-2023 artfynd.xlsx", "A 39613-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39613-2023 karta.png", "A 39613-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39613-2023 FSC-klagomål.docx", "A 39613-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39613-2023 FSC-klagomål mail.docx", "A 39613-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39613-2023 tillsynsbegäran.docx", "A 39613-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39613-2023 tillsynsbegäran mail.docx", "A 39613-2023")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39613-2023 prioriterade fågelarter.docx", "A 39613-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 39620-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SIGTUNA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Grönfink
 Duvhök
@@ -828,126 +922,32 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39620-2023 artfynd.xlsx", "A 39620-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39620-2023 karta.png", "A 39620-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39620-2023 FSC-klagomål.docx", "A 39620-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39620-2023 FSC-klagomål mail.docx", "A 39620-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39620-2023 tillsynsbegäran.docx", "A 39620-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39620-2023 tillsynsbegäran mail.docx", "A 39620-2023")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39620-2023 prioriterade fågelarter.docx", "A 39620-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 39613-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45163</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SIGTUNA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Talltita
-Kornig nållav
-Grönsiska
-Kungsfågel
-Vanlig padda
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39613-2023 artfynd.xlsx", "A 39613-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39613-2023 karta.png", "A 39613-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39613-2023 FSC-klagomål.docx", "A 39613-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39613-2023 FSC-klagomål mail.docx", "A 39613-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39613-2023 tillsynsbegäran.docx", "A 39613-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39613-2023 tillsynsbegäran mail.docx", "A 39613-2023")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39613-2023 prioriterade fågelarter.docx", "A 39613-2023")</f>
         <v/>
       </c>
     </row>
@@ -961,7 +961,7 @@
         <v>45607</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44265</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>45786.53068287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44791</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45280</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>46043</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,14 +1499,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 51189-2022</t>
+          <t>A 33751-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44865</v>
+        <v>45520</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,23 +1518,28 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>32.8</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1546,52 +1551,56 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 51189-2022 artfynd.xlsx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 33751-2024 artfynd.xlsx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 51189-2022 karta.png", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 33751-2024 karta.png", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 51189-2022 FSC-klagomål.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 33751-2024 FSC-klagomål.docx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 51189-2022 FSC-klagomål mail.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 33751-2024 FSC-klagomål mail.docx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 51189-2022 tillsynsbegäran.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 33751-2024 tillsynsbegäran.docx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 51189-2022 tillsynsbegäran mail.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 33751-2024 tillsynsbegäran mail.docx", "A 33751-2024")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 33751-2024 prioriterade fågelarter.docx", "A 33751-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 64345-2023</t>
+          <t>A 39716-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45280</v>
+        <v>45166</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1613,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1613,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1628,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1638,49 +1647,49 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Hornuggla</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 64345-2023 artfynd.xlsx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39716-2023 artfynd.xlsx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 64345-2023 karta.png", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39716-2023 karta.png", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 64345-2023 FSC-klagomål.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39716-2023 FSC-klagomål.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 64345-2023 FSC-klagomål mail.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39716-2023 FSC-klagomål mail.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 64345-2023 tillsynsbegäran.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39716-2023 tillsynsbegäran.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 64345-2023 tillsynsbegäran mail.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39716-2023 tillsynsbegäran mail.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 64345-2023 prioriterade fågelarter.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39716-2023 prioriterade fågelarter.docx", "A 39716-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 39716-2023</t>
+          <t>A 64345-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45166</v>
+        <v>45280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1693,7 +1702,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1702,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1717,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1727,49 +1736,49 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Hornuggla</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39716-2023 artfynd.xlsx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 64345-2023 artfynd.xlsx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39716-2023 karta.png", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 64345-2023 karta.png", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39716-2023 FSC-klagomål.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 64345-2023 FSC-klagomål.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39716-2023 FSC-klagomål mail.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 64345-2023 FSC-klagomål mail.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39716-2023 tillsynsbegäran.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 64345-2023 tillsynsbegäran.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39716-2023 tillsynsbegäran mail.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 64345-2023 tillsynsbegäran mail.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39716-2023 prioriterade fågelarter.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 64345-2023 prioriterade fågelarter.docx", "A 64345-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 33751-2024</t>
+          <t>A 51189-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45520</v>
+        <v>44865</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1781,28 +1790,23 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>32.8</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1814,42 +1818,38 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 33751-2024 artfynd.xlsx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 51189-2022 artfynd.xlsx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 33751-2024 karta.png", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 51189-2022 karta.png", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 33751-2024 FSC-klagomål.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 51189-2022 FSC-klagomål.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 33751-2024 FSC-klagomål mail.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 51189-2022 FSC-klagomål mail.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 33751-2024 tillsynsbegäran.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 51189-2022 tillsynsbegäran.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 33751-2024 tillsynsbegäran mail.docx", "A 33751-2024")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 33751-2024 prioriterade fågelarter.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 51189-2022 tillsynsbegäran mail.docx", "A 51189-2022")</f>
         <v/>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
         <v>45020</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>44618.61763888889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44468</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44264</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,14 +2131,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 11459-2021</t>
+          <t>A 74167-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44264.31767361111</v>
+        <v>44557</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2150,13 +2150,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2193,14 +2188,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 74167-2021</t>
+          <t>A 11459-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44557</v>
+        <v>44264.31767361111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2212,8 +2207,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>44385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44265.30173611111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2426,14 +2426,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 31697-2022</t>
+          <t>A 11197-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44776</v>
+        <v>44263.32083333333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2445,13 +2445,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2488,14 +2483,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 11197-2021</t>
+          <t>A 31697-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44263.32083333333</v>
+        <v>44776</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2507,8 +2502,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>44619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>45211.68196759259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2778,14 +2778,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 25459-2023</t>
+          <t>A 58619-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45089</v>
+        <v>45251.54119212963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2797,13 +2797,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2840,14 +2835,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 40643-2024</t>
+          <t>A 5142-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45558</v>
+        <v>45330</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2860,7 +2855,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2897,14 +2892,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 6826-2025</t>
+          <t>A 59168-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45700.73123842593</v>
+        <v>44904.48028935185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2917,7 +2912,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2954,14 +2949,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 9856-2024</t>
+          <t>A 41702-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45363</v>
+        <v>45176</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2973,8 +2968,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3011,14 +3011,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 37392-2024</t>
+          <t>A 45233-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45540</v>
+        <v>45575</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3068,14 +3068,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 24636-2023</t>
+          <t>A 61576-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45084</v>
+        <v>45646.6218287037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.9</v>
+        <v>8.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3125,14 +3125,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 60934-2023</t>
+          <t>A 38276-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45261.42775462963</v>
+        <v>45160</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>18.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3182,14 +3182,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 10790-2023</t>
+          <t>A 20375-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44989.32980324074</v>
+        <v>45054</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3239,14 +3239,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 24967-2024</t>
+          <t>A 51770-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45461</v>
+        <v>45222.71855324074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3296,14 +3296,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 26256-2025</t>
+          <t>A 59165-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45805.58125</v>
+        <v>44904.4783912037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3353,14 +3353,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 862-2022</t>
+          <t>A 29193-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44571</v>
+        <v>45822.70847222222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.4</v>
+        <v>7.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3410,14 +3410,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 41693-2022</t>
+          <t>A 20960-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44827</v>
+        <v>45061</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3429,13 +3429,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3472,14 +3467,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41949-2025</t>
+          <t>A 28851-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45903.45309027778</v>
+        <v>44749.47957175926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3492,7 +3487,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3529,14 +3524,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 41963-2025</t>
+          <t>A 42572-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45903.47229166667</v>
+        <v>45565.64217592592</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3549,7 +3544,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3586,14 +3581,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 41951-2025</t>
+          <t>A 41841-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45903.45920138889</v>
+        <v>45902.72109953704</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3606,7 +3601,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3643,14 +3638,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 41957-2025</t>
+          <t>A 28681-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45903.46525462963</v>
+        <v>45819.68207175926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3663,7 +3658,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>7.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3700,14 +3695,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 41841-2025</t>
+          <t>A 56796-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45902.72109953704</v>
+        <v>44894.42490740741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3720,7 +3715,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3757,14 +3752,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 12931-2022</t>
+          <t>A 41957-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44642</v>
+        <v>45903.46525462963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3776,13 +3771,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3819,14 +3809,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 29193-2025</t>
+          <t>A 41951-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45822.70847222222</v>
+        <v>45903.45920138889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3839,7 +3829,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>7.3</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3876,14 +3866,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 74170-2021</t>
+          <t>A 41949-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44557</v>
+        <v>45903.45309027778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3896,7 +3886,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3933,14 +3923,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 28752-2024</t>
+          <t>A 41963-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45478.57900462963</v>
+        <v>45903.47229166667</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3953,7 +3943,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3990,14 +3980,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 47392-2025</t>
+          <t>A 15428-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45930.60368055556</v>
+        <v>44285</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4009,8 +3999,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4047,14 +4042,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 41702-2023</t>
+          <t>A 40643-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45176</v>
+        <v>45558</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,13 +4061,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4109,14 +4099,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 36179-2022</t>
+          <t>A 32420-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44803</v>
+        <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4129,7 +4119,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4166,14 +4156,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 17286-2022</t>
+          <t>A 32426-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44678</v>
+        <v>45110</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4186,7 +4176,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4223,14 +4213,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 49916-2025</t>
+          <t>A 12900-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45940.62260416667</v>
+        <v>44642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4243,7 +4233,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4276,18 +4266,38 @@
         <v>0</v>
       </c>
       <c r="R56" s="2" t="inlineStr"/>
+      <c r="U56">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/knärot/A 12900-2022 karta knärot.png", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="V56">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 12900-2022 FSC-klagomål.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="W56">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 12900-2022 FSC-klagomål mail.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="X56">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 12900-2022 tillsynsbegäran.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="Y56">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 12900-2022 tillsynsbegäran mail.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 42572-2024</t>
+          <t>A 46757-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45565.64217592592</v>
+        <v>45198</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4300,7 +4310,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4337,14 +4347,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 28681-2025</t>
+          <t>A 10790-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45819.68207175926</v>
+        <v>44989.32980324074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4357,7 +4367,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4394,14 +4404,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 45233-2024</t>
+          <t>A 25452-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45575</v>
+        <v>45089</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4413,8 +4423,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4451,14 +4466,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 59957-2023</t>
+          <t>A 25459-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45257</v>
+        <v>45089</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4476,7 +4491,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4513,14 +4528,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 11718-2021</t>
+          <t>A 61937-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44265</v>
+        <v>44502</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4532,13 +4547,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>14.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4575,14 +4585,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 31695-2022</t>
+          <t>A 47392-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44776</v>
+        <v>45930.60368055556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4594,13 +4604,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4637,14 +4642,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 17320-2023</t>
+          <t>A 19294-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45035.54853009259</v>
+        <v>45769.56142361111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4657,7 +4662,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.3</v>
+        <v>7.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4694,14 +4699,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 12900-2022</t>
+          <t>A 49916-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44642</v>
+        <v>45940.62260416667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4714,7 +4719,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.6</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4747,38 +4752,18 @@
         <v>0</v>
       </c>
       <c r="R64" s="2" t="inlineStr"/>
-      <c r="U64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/knärot/A 12900-2022 karta knärot.png", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="V64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 12900-2022 FSC-klagomål.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="W64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 12900-2022 FSC-klagomål mail.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="X64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 12900-2022 tillsynsbegäran.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="Y64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 12900-2022 tillsynsbegäran mail.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 5142-2024</t>
+          <t>A 60935-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45330</v>
+        <v>45261</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4791,7 +4776,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4835,7 +4820,7 @@
         <v>45061</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4885,14 +4870,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 8673-2025</t>
+          <t>A 11718-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45712.4272337963</v>
+        <v>44265</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4906,11 +4891,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>9.6</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4947,14 +4932,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 59165-2022</t>
+          <t>A 32424-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44904.4783912037</v>
+        <v>45110</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4967,7 +4952,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5004,14 +4989,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 28851-2022</t>
+          <t>A 43700-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44749.47957175926</v>
+        <v>45187</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5024,7 +5009,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5061,14 +5046,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 9120-2025</t>
+          <t>A 72530-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45713.82875</v>
+        <v>44546</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5080,13 +5065,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>9.699999999999999</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5123,14 +5103,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 61937-2021</t>
+          <t>A 74170-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44502</v>
+        <v>44557</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5143,7 +5123,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>14.7</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5180,14 +5160,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 57871-2025</t>
+          <t>A 17320-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45981.6530787037</v>
+        <v>45035.54853009259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5200,7 +5180,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5237,14 +5217,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 57879-2025</t>
+          <t>A 7214-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45981.66293981481</v>
+        <v>44606.33935185185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5257,7 +5237,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5294,14 +5274,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 57881-2025</t>
+          <t>A 45319-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45981.66450231482</v>
+        <v>45191</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5313,8 +5293,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>8.1</v>
+        <v>2.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5351,14 +5336,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 19288-2025</t>
+          <t>A 57879-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45769</v>
+        <v>45981.66293981481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5371,7 +5356,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>14.5</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5408,14 +5393,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 45319-2023</t>
+          <t>A 57881-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45191</v>
+        <v>45981.66450231482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5427,13 +5412,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.7</v>
+        <v>8.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5470,14 +5450,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 2663-2026</t>
+          <t>A 57871-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46037.64071759259</v>
+        <v>45981.6530787037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5490,7 +5470,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>16.7</v>
+        <v>2.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5527,14 +5507,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 2675-2026</t>
+          <t>A 17286-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46037.64938657408</v>
+        <v>44678</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5547,7 +5527,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>7.3</v>
+        <v>3.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5584,14 +5564,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 19294-2025</t>
+          <t>A 19288-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45769.56142361111</v>
+        <v>45769</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5604,7 +5584,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>7.7</v>
+        <v>14.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5641,14 +5621,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 2628-2026</t>
+          <t>A 28752-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>46037.60576388889</v>
+        <v>45478.57900462963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5661,7 +5641,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5698,14 +5678,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 19311-2025</t>
+          <t>A 862-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45769.57142361111</v>
+        <v>44571</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5718,7 +5698,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.4</v>
+        <v>2.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5755,14 +5735,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 60935-2023</t>
+          <t>A 2675-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45261</v>
+        <v>46037.64938657408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5775,7 +5755,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>7.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5812,14 +5792,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 3673-2026</t>
+          <t>A 2628-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46043</v>
+        <v>46037.60576388889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5832,7 +5812,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5869,14 +5849,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 32420-2023</t>
+          <t>A 2663-2026</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45110</v>
+        <v>46037.64071759259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5889,7 +5869,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.3</v>
+        <v>16.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5926,14 +5906,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 32426-2023</t>
+          <t>A 24636-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45110</v>
+        <v>45084</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5946,7 +5926,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5983,14 +5963,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 15428-2021</t>
+          <t>A 3673-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44285</v>
+        <v>46043</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6002,13 +5982,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6045,14 +6020,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 4788-2026</t>
+          <t>A 9856-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46048.56197916667</v>
+        <v>45363</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6102,14 +6077,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 5175-2026</t>
+          <t>A 273-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46049.64638888889</v>
+        <v>45653</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6122,7 +6097,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6159,14 +6134,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 60949-2025</t>
+          <t>A 31695-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45996</v>
+        <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6178,8 +6153,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>21.9</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6216,14 +6196,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 20375-2023</t>
+          <t>A 4788-2026</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45054</v>
+        <v>46048.56197916667</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6236,7 +6216,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6273,14 +6253,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 60969-2025</t>
+          <t>A 5175-2026</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45996</v>
+        <v>46049.64638888889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6293,7 +6273,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>8.800000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6330,14 +6310,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 38276-2023</t>
+          <t>A 60969-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45160</v>
+        <v>45996</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6350,7 +6330,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>18.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6387,14 +6367,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 2496-2024</t>
+          <t>A 59957-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45313</v>
+        <v>45257</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6408,11 +6388,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6449,14 +6429,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 6893-2026</t>
+          <t>A 2496-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46057.47671296296</v>
+        <v>45313</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,8 +6448,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6506,14 +6491,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 59168-2022</t>
+          <t>A 19311-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44904.48028935185</v>
+        <v>45769.57142361111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6526,7 +6511,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6563,14 +6548,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 72530-2021</t>
+          <t>A 35966-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44546</v>
+        <v>45533</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6583,7 +6568,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6620,14 +6605,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 7229-2026</t>
+          <t>A 36179-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46058.57027777778</v>
+        <v>44803</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6640,7 +6625,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.8</v>
+        <v>6.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6677,14 +6662,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 20960-2023</t>
+          <t>A 60949-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45061</v>
+        <v>45996</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6697,7 +6682,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>21.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6734,14 +6719,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 32424-2023</t>
+          <t>A 36181-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45110</v>
+        <v>44803</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6754,7 +6739,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6791,14 +6776,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 61576-2024</t>
+          <t>A 6893-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45646.6218287037</v>
+        <v>46057.47671296296</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6811,7 +6796,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>8.9</v>
+        <v>3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6848,14 +6833,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 58619-2023</t>
+          <t>A 7229-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45251.54119212963</v>
+        <v>46058.57027777778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6868,7 +6853,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6905,14 +6890,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43700-2023</t>
+          <t>A 6826-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45187</v>
+        <v>45700.73123842593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6925,7 +6910,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6962,14 +6947,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 56796-2022</t>
+          <t>A 7833-2026</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44894.42490740741</v>
+        <v>46062.64694444444</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6982,7 +6967,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.2</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7019,14 +7004,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 36181-2022</t>
+          <t>A 11285-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44803</v>
+        <v>44992</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7039,7 +7024,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7083,7 +7068,7 @@
         <v>45261.40866898148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7133,14 +7118,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 273-2025</t>
+          <t>A 12931-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45653</v>
+        <v>44642</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7152,8 +7137,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7190,14 +7180,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 38465-2023</t>
+          <t>A 41693-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45162</v>
+        <v>44827</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7209,8 +7199,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7247,14 +7242,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 7214-2022</t>
+          <t>A 61589-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44606.33935185185</v>
+        <v>45646.62961805556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7267,7 +7262,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7304,14 +7299,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 11285-2023</t>
+          <t>A 37392-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44992</v>
+        <v>45540</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7324,7 +7319,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7361,14 +7356,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 25452-2023</t>
+          <t>A 38465-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45089</v>
+        <v>45162</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7378,11 +7373,6 @@
       <c r="E110" t="inlineStr">
         <is>
           <t>SIGTUNA</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -7423,14 +7413,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 60865-2024</t>
+          <t>A 8673-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45644.69387731481</v>
+        <v>45712.4272337963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7442,8 +7432,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>0.2</v>
+        <v>9.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7480,14 +7475,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 16734-2025</t>
+          <t>A 31684-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45754.53179398148</v>
+        <v>44776</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7499,8 +7494,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7537,14 +7537,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 51770-2023</t>
+          <t>A 60865-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45222.71855324074</v>
+        <v>45644.69387731481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.8</v>
+        <v>0.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7594,14 +7594,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 31684-2022</t>
+          <t>A 9120-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44776</v>
+        <v>45713.82875</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7615,11 +7615,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7656,14 +7656,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 35966-2024</t>
+          <t>A 24967-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45533</v>
+        <v>45461</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7713,14 +7713,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 61589-2024</t>
+          <t>A 16734-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45646.62961805556</v>
+        <v>45754.53179398148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7770,14 +7770,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 46757-2023</t>
+          <t>A 43158-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45198</v>
+        <v>45567</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7827,14 +7827,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 3890-2025</t>
+          <t>A 24946-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45684.36896990741</v>
+        <v>45461</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.9</v>
+        <v>12.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7884,14 +7884,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 43158-2024</t>
+          <t>A 3890-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45567</v>
+        <v>45684.36896990741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7941,14 +7941,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 24946-2024</t>
+          <t>A 21513-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45461</v>
+        <v>45782.63189814815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>12.5</v>
+        <v>2.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7998,14 +7998,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 21513-2025</t>
+          <t>A 48375-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45782.63189814815</v>
+        <v>45590.58184027778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8017,8 +8017,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8055,14 +8060,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 19031-2024</t>
+          <t>A 22402-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45427</v>
+        <v>45786.53287037037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8075,7 +8080,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8119,7 +8124,7 @@
         <v>45533</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8169,14 +8174,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 22402-2025</t>
+          <t>A 19031-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45786.53287037037</v>
+        <v>45427</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8189,7 +8194,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8226,14 +8231,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 48375-2024</t>
+          <t>A 24105-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45590.58184027778</v>
+        <v>45796.60096064815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8245,13 +8250,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8285,17 +8285,17 @@
       </c>
       <c r="R125" s="2" t="inlineStr"/>
     </row>
-    <row r="126">
+    <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 24105-2025</t>
+          <t>A 60934-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45796.60096064815</v>
+        <v>45261.42775462963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8341,6 +8341,63 @@
         <v>0</v>
       </c>
       <c r="R126" s="2" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>A 26256-2025</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>45805.58125</v>
+      </c>
+      <c r="C127" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>SIGTUNA</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44621</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,14 +766,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 39613-2023</t>
+          <t>A 39620-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>45163</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,39 +786,133 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>15.2</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
         <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Grönfink
+Duvhök
+Talltita
+Gröngöling
+Grönsiska
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39620-2023 artfynd.xlsx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39620-2023 karta.png", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39620-2023 FSC-klagomål.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39620-2023 FSC-klagomål mail.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39620-2023 tillsynsbegäran.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39620-2023 tillsynsbegäran mail.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39620-2023 prioriterade fågelarter.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 39613-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SIGTUNA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Talltita
 Kornig nållav
@@ -828,126 +922,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39613-2023 artfynd.xlsx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39613-2023 karta.png", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39613-2023 FSC-klagomål.docx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39613-2023 FSC-klagomål mail.docx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39613-2023 tillsynsbegäran.docx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39613-2023 tillsynsbegäran mail.docx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39613-2023 prioriterade fågelarter.docx", "A 39613-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 39620-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45163</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SIGTUNA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Grönfink
-Duvhök
-Talltita
-Gröngöling
-Grönsiska
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39620-2023 artfynd.xlsx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39620-2023 karta.png", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39620-2023 FSC-klagomål.docx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39620-2023 FSC-klagomål mail.docx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39620-2023 tillsynsbegäran.docx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39620-2023 tillsynsbegäran mail.docx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39620-2023 prioriterade fågelarter.docx", "A 39620-2023")</f>
         <v/>
       </c>
     </row>
@@ -961,7 +961,7 @@
         <v>45607</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44265</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>45786.53068287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44791</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45280</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>46043</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45520</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1593,14 +1593,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 39716-2023</t>
+          <t>A 15452-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45166</v>
+        <v>45020</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,8 +1612,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1622,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1637,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1647,49 +1652,49 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Hornuggla</t>
+          <t>Trana</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39716-2023 artfynd.xlsx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 15452-2023 artfynd.xlsx", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39716-2023 karta.png", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 15452-2023 karta.png", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39716-2023 FSC-klagomål.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 15452-2023 FSC-klagomål.docx", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39716-2023 FSC-klagomål mail.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 15452-2023 FSC-klagomål mail.docx", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39716-2023 tillsynsbegäran.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 15452-2023 tillsynsbegäran.docx", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39716-2023 tillsynsbegäran mail.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 15452-2023 tillsynsbegäran mail.docx", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39716-2023 prioriterade fågelarter.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 15452-2023 prioriterade fågelarter.docx", "A 15452-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 64345-2023</t>
+          <t>A 51189-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45280</v>
+        <v>44865</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,17 +1707,17 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>32.8</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
@@ -1726,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1736,49 +1741,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 64345-2023 artfynd.xlsx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 51189-2022 artfynd.xlsx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 64345-2023 karta.png", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 51189-2022 karta.png", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 64345-2023 FSC-klagomål.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 51189-2022 FSC-klagomål.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 64345-2023 FSC-klagomål mail.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 51189-2022 FSC-klagomål mail.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 64345-2023 tillsynsbegäran.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 51189-2022 tillsynsbegäran.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 64345-2023 tillsynsbegäran mail.docx", "A 64345-2023")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 64345-2023 prioriterade fågelarter.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 51189-2022 tillsynsbegäran mail.docx", "A 51189-2022")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 51189-2022</t>
+          <t>A 64345-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44865</v>
+        <v>45280</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1791,16 +1792,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>32.8</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1815,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1825,45 +1826,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 51189-2022 artfynd.xlsx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 64345-2023 artfynd.xlsx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 51189-2022 karta.png", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 64345-2023 karta.png", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 51189-2022 FSC-klagomål.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 64345-2023 FSC-klagomål.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 51189-2022 FSC-klagomål mail.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 64345-2023 FSC-klagomål mail.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 51189-2022 tillsynsbegäran.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 64345-2023 tillsynsbegäran.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 51189-2022 tillsynsbegäran mail.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 64345-2023 tillsynsbegäran mail.docx", "A 64345-2023")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 64345-2023 prioriterade fågelarter.docx", "A 64345-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 15452-2023</t>
+          <t>A 39716-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45020</v>
+        <v>45166</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,13 +1880,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1915,35 +1915,35 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Trana</t>
+          <t>Hornuggla</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 15452-2023 artfynd.xlsx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39716-2023 artfynd.xlsx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 15452-2023 karta.png", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39716-2023 karta.png", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 15452-2023 FSC-klagomål.docx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39716-2023 FSC-klagomål.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 15452-2023 FSC-klagomål mail.docx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39716-2023 FSC-klagomål mail.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 15452-2023 tillsynsbegäran.docx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39716-2023 tillsynsbegäran.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 15452-2023 tillsynsbegäran mail.docx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39716-2023 tillsynsbegäran mail.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 15452-2023 prioriterade fågelarter.docx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39716-2023 prioriterade fågelarter.docx", "A 39716-2023")</f>
         <v/>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
         <v>44618.61763888889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44468</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44264</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44557</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44264.31767361111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44265.30173611111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2426,14 +2426,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 11197-2021</t>
+          <t>A 31697-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44263.32083333333</v>
+        <v>44776</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2445,8 +2445,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2483,14 +2488,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 31697-2022</t>
+          <t>A 11197-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44776</v>
+        <v>44263.32083333333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2502,13 +2507,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>44619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2721,14 +2721,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 49592-2023</t>
+          <t>A 25459-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45211.68196759259</v>
+        <v>45089</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2740,8 +2740,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2778,14 +2783,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 58619-2023</t>
+          <t>A 7214-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45251.54119212963</v>
+        <v>44606.33935185185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2798,7 +2803,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2835,14 +2840,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 5142-2024</t>
+          <t>A 11285-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45330</v>
+        <v>44992</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2855,7 +2860,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2892,14 +2897,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 59168-2022</t>
+          <t>A 25452-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44904.48028935185</v>
+        <v>45089</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2911,8 +2916,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2949,14 +2959,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41702-2023</t>
+          <t>A 49592-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45176</v>
+        <v>45211.68196759259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2968,13 +2978,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3011,14 +3016,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 45233-2024</t>
+          <t>A 60865-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45575</v>
+        <v>45644.69387731481</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3031,7 +3036,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3068,14 +3073,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 61576-2024</t>
+          <t>A 40643-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45646.6218287037</v>
+        <v>45558</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3088,7 +3093,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>8.9</v>
+        <v>1.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3125,14 +3130,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 38276-2023</t>
+          <t>A 6826-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45160</v>
+        <v>45700.73123842593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3145,7 +3150,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>18.1</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3182,14 +3187,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 20375-2023</t>
+          <t>A 16734-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45054</v>
+        <v>45754.53179398148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3202,7 +3207,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3246,7 +3251,7 @@
         <v>45222.71855324074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3296,14 +3301,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 59165-2022</t>
+          <t>A 41949-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44904.4783912037</v>
+        <v>45903.45309027778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3316,7 +3321,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3353,14 +3358,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 29193-2025</t>
+          <t>A 41963-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45822.70847222222</v>
+        <v>45903.47229166667</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3373,7 +3378,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7.3</v>
+        <v>6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3410,14 +3415,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 20960-2023</t>
+          <t>A 41951-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45061</v>
+        <v>45903.45920138889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3430,7 +3435,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3467,14 +3472,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 28851-2022</t>
+          <t>A 41957-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44749.47957175926</v>
+        <v>45903.46525462963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3487,7 +3492,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3524,14 +3529,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 42572-2024</t>
+          <t>A 31684-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45565.64217592592</v>
+        <v>44776</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3543,8 +3548,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3588,7 +3598,7 @@
         <v>45902.72109953704</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3638,14 +3648,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 28681-2025</t>
+          <t>A 35966-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45819.68207175926</v>
+        <v>45533</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3658,7 +3668,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>7.5</v>
+        <v>0.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3695,14 +3705,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 56796-2022</t>
+          <t>A 61589-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44894.42490740741</v>
+        <v>45646.62961805556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3715,7 +3725,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3752,14 +3762,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 41957-2025</t>
+          <t>A 46757-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45903.46525462963</v>
+        <v>45198</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3772,7 +3782,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3809,14 +3819,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 41951-2025</t>
+          <t>A 3890-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45903.45920138889</v>
+        <v>45684.36896990741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3829,7 +3839,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3866,14 +3876,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 41949-2025</t>
+          <t>A 43158-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45903.45309027778</v>
+        <v>45567</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3886,7 +3896,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3923,14 +3933,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 41963-2025</t>
+          <t>A 24946-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45903.47229166667</v>
+        <v>45461</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3943,7 +3953,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3980,14 +3990,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 15428-2021</t>
+          <t>A 21513-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44285</v>
+        <v>45782.63189814815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3999,13 +4009,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4042,14 +4047,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 40643-2024</t>
+          <t>A 9856-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45558</v>
+        <v>45363</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4062,7 +4067,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4099,14 +4104,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 32420-2023</t>
+          <t>A 37392-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45110</v>
+        <v>45540</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4119,7 +4124,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4156,14 +4161,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 32426-2023</t>
+          <t>A 19031-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45110</v>
+        <v>45427</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4176,7 +4181,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4213,14 +4218,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 12900-2022</t>
+          <t>A 35961-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44642</v>
+        <v>45533</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4233,7 +4238,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4266,38 +4271,18 @@
         <v>0</v>
       </c>
       <c r="R56" s="2" t="inlineStr"/>
-      <c r="U56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/knärot/A 12900-2022 karta knärot.png", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 12900-2022 FSC-klagomål.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 12900-2022 FSC-klagomål mail.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 12900-2022 tillsynsbegäran.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 12900-2022 tillsynsbegäran mail.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 46757-2023</t>
+          <t>A 22402-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45198</v>
+        <v>45786.53287037037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4310,7 +4295,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4347,14 +4332,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 10790-2023</t>
+          <t>A 48375-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44989.32980324074</v>
+        <v>45590.58184027778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4366,8 +4351,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4404,14 +4394,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 25452-2023</t>
+          <t>A 24636-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45089</v>
+        <v>45084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4423,13 +4413,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4466,14 +4451,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 25459-2023</t>
+          <t>A 10790-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45089</v>
+        <v>44989.32980324074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4485,13 +4470,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4528,14 +4508,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 61937-2021</t>
+          <t>A 24105-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44502</v>
+        <v>45796.60096064815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4548,7 +4528,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>14.7</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4585,14 +4565,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 47392-2025</t>
+          <t>A 24967-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45930.60368055556</v>
+        <v>45461</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4605,7 +4585,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4642,14 +4622,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 19294-2025</t>
+          <t>A 862-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45769.56142361111</v>
+        <v>44571</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4662,7 +4642,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>7.7</v>
+        <v>2.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4699,14 +4679,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 49916-2025</t>
+          <t>A 60934-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45940.62260416667</v>
+        <v>45261.42775462963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4719,7 +4699,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4756,14 +4736,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 60935-2023</t>
+          <t>A 41693-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45261</v>
+        <v>44827</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4775,8 +4755,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4813,14 +4798,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 20957-2023</t>
+          <t>A 26256-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45061</v>
+        <v>45805.58125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4833,7 +4818,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.3</v>
+        <v>7.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4870,14 +4855,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 11718-2021</t>
+          <t>A 12931-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44265</v>
+        <v>44642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4891,11 +4876,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4932,14 +4917,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 32424-2023</t>
+          <t>A 74170-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45110</v>
+        <v>44557</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4952,7 +4937,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4989,14 +4974,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 43700-2023</t>
+          <t>A 29193-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45187</v>
+        <v>45822.70847222222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5009,7 +4994,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>7.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5046,14 +5031,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 72530-2021</t>
+          <t>A 47392-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44546</v>
+        <v>45930.60368055556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5066,7 +5051,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5103,14 +5088,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 74170-2021</t>
+          <t>A 28752-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44557</v>
+        <v>45478.57900462963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5123,7 +5108,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5160,14 +5145,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 17320-2023</t>
+          <t>A 41702-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45035.54853009259</v>
+        <v>45176</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5179,8 +5164,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5217,14 +5207,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 7214-2022</t>
+          <t>A 36179-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44606.33935185185</v>
+        <v>44803</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5237,7 +5227,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>6.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5274,14 +5264,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 45319-2023</t>
+          <t>A 17286-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45191</v>
+        <v>44678</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5293,13 +5283,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5336,14 +5321,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 57879-2025</t>
+          <t>A 28681-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45981.66293981481</v>
+        <v>45819.68207175926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5356,7 +5341,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5393,14 +5378,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57881-2025</t>
+          <t>A 49916-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45981.66450231482</v>
+        <v>45940.62260416667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5413,7 +5398,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8.1</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5450,14 +5435,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 57871-2025</t>
+          <t>A 42572-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45981.6530787037</v>
+        <v>45565.64217592592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5470,7 +5455,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5507,14 +5492,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 17286-2022</t>
+          <t>A 45233-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44678</v>
+        <v>45575</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5527,7 +5512,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5564,14 +5549,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 19288-2025</t>
+          <t>A 59957-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45769</v>
+        <v>45257</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5583,8 +5568,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>14.5</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5621,14 +5611,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28752-2024</t>
+          <t>A 11718-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45478.57900462963</v>
+        <v>44265</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5640,8 +5630,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5678,14 +5673,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 862-2022</t>
+          <t>A 12900-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44571</v>
+        <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5698,7 +5693,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.4</v>
+        <v>5.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5731,18 +5726,38 @@
         <v>0</v>
       </c>
       <c r="R81" s="2" t="inlineStr"/>
+      <c r="U81">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/knärot/A 12900-2022 karta knärot.png", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="V81">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 12900-2022 FSC-klagomål.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="W81">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 12900-2022 FSC-klagomål mail.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="X81">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 12900-2022 tillsynsbegäran.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="Y81">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 12900-2022 tillsynsbegäran mail.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 2675-2026</t>
+          <t>A 31695-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46037.64938657408</v>
+        <v>44776</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5754,8 +5769,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>7.3</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5792,14 +5812,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 2628-2026</t>
+          <t>A 17320-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46037.60576388889</v>
+        <v>45035.54853009259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5812,7 +5832,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5849,14 +5869,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 2663-2026</t>
+          <t>A 5142-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46037.64071759259</v>
+        <v>45330</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5869,7 +5889,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>16.7</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5906,14 +5926,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 24636-2023</t>
+          <t>A 20957-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45084</v>
+        <v>45061</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5926,7 +5946,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5963,14 +5983,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 3673-2026</t>
+          <t>A 8673-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46043</v>
+        <v>45712.4272337963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,8 +6002,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>3.8</v>
+        <v>9.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6020,14 +6045,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 9856-2024</t>
+          <t>A 59165-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45363</v>
+        <v>44904.4783912037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6040,7 +6065,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6077,14 +6102,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 273-2025</t>
+          <t>A 28851-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45653</v>
+        <v>44749.47957175926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6097,7 +6122,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6134,14 +6159,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 31695-2022</t>
+          <t>A 9120-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44776</v>
+        <v>45713.82875</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6155,11 +6180,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6196,14 +6221,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 4788-2026</t>
+          <t>A 61937-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46048.56197916667</v>
+        <v>44502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6216,7 +6241,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>14.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6253,14 +6278,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 5175-2026</t>
+          <t>A 57871-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46049.64638888889</v>
+        <v>45981.6530787037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6273,7 +6298,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6310,14 +6335,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 60969-2025</t>
+          <t>A 57879-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45996</v>
+        <v>45981.66293981481</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6330,7 +6355,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>8.800000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6367,14 +6392,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 59957-2023</t>
+          <t>A 57881-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45257</v>
+        <v>45981.66450231482</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6386,13 +6411,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>8.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6429,14 +6449,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 2496-2024</t>
+          <t>A 45319-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45313</v>
+        <v>45191</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6450,11 +6470,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6491,14 +6511,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 19311-2025</t>
+          <t>A 19288-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45769.57142361111</v>
+        <v>45769</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6511,7 +6531,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5.4</v>
+        <v>14.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6548,14 +6568,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 35966-2024</t>
+          <t>A 19294-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45533</v>
+        <v>45769.56142361111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6568,7 +6588,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.4</v>
+        <v>7.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6605,14 +6625,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 36179-2022</t>
+          <t>A 19311-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44803</v>
+        <v>45769.57142361111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6625,7 +6645,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6662,14 +6682,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 60949-2025</t>
+          <t>A 2663-2026</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45996</v>
+        <v>46037.64071759259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6682,7 +6702,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>21.9</v>
+        <v>16.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6719,14 +6739,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 36181-2022</t>
+          <t>A 2675-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44803</v>
+        <v>46037.64938657408</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6739,7 +6759,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>7.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6776,14 +6796,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 6893-2026</t>
+          <t>A 2628-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46057.47671296296</v>
+        <v>46037.60576388889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6796,7 +6816,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6833,14 +6853,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 7229-2026</t>
+          <t>A 60935-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46058.57027777778</v>
+        <v>45261</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6853,7 +6873,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6890,14 +6910,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 6826-2025</t>
+          <t>A 32420-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45700.73123842593</v>
+        <v>45110</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6910,7 +6930,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6947,14 +6967,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 7833-2026</t>
+          <t>A 32426-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46062.64694444444</v>
+        <v>45110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6967,7 +6987,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7004,14 +7024,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 11285-2023</t>
+          <t>A 15428-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44992</v>
+        <v>44285</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7023,8 +7043,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7061,14 +7086,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 60922-2023</t>
+          <t>A 3673-2026</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45261.40866898148</v>
+        <v>46043</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7081,7 +7106,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7118,14 +7143,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 12931-2022</t>
+          <t>A 4788-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44642</v>
+        <v>46048.56197916667</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7137,13 +7162,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7180,14 +7200,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 41693-2022</t>
+          <t>A 5175-2026</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44827</v>
+        <v>46049.64638888889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7199,13 +7219,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7242,14 +7257,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 61589-2024</t>
+          <t>A 20375-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45646.62961805556</v>
+        <v>45054</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7262,7 +7277,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7299,14 +7314,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 37392-2024</t>
+          <t>A 38276-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45540</v>
+        <v>45160</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7319,7 +7334,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.1</v>
+        <v>18.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7356,14 +7371,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 38465-2023</t>
+          <t>A 2496-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45162</v>
+        <v>45313</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7375,8 +7390,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7413,14 +7433,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 8673-2025</t>
+          <t>A 60949-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45712.4272337963</v>
+        <v>45996</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,13 +7452,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>9.6</v>
+        <v>21.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7475,14 +7490,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 31684-2022</t>
+          <t>A 59168-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44776</v>
+        <v>44904.48028935185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7494,13 +7509,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7537,14 +7547,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 60865-2024</t>
+          <t>A 60969-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45644.69387731481</v>
+        <v>45996</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7557,7 +7567,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7594,14 +7604,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 9120-2025</t>
+          <t>A 72530-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45713.82875</v>
+        <v>44546</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7613,13 +7623,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>9.699999999999999</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7656,14 +7661,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 24967-2024</t>
+          <t>A 6893-2026</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45461</v>
+        <v>46057.47671296296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7676,7 +7681,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7713,14 +7718,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 16734-2025</t>
+          <t>A 7229-2026</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45754.53179398148</v>
+        <v>46058.57027777778</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7733,7 +7738,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7770,14 +7775,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 43158-2024</t>
+          <t>A 7833-2026</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45567</v>
+        <v>46062.64694444444</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7790,7 +7795,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7827,14 +7832,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 24946-2024</t>
+          <t>A 20960-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45461</v>
+        <v>45061</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7847,7 +7852,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>12.5</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7884,14 +7889,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 3890-2025</t>
+          <t>A 32424-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45684.36896990741</v>
+        <v>45110</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7904,7 +7909,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7941,14 +7946,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 21513-2025</t>
+          <t>A 61576-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45782.63189814815</v>
+        <v>45646.6218287037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7961,7 +7966,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.2</v>
+        <v>8.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7998,14 +8003,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 48375-2024</t>
+          <t>A 58619-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45590.58184027778</v>
+        <v>45251.54119212963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8017,13 +8022,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8060,14 +8060,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 22402-2025</t>
+          <t>A 43700-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45786.53287037037</v>
+        <v>45187</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8117,14 +8117,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 35961-2024</t>
+          <t>A 56796-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45533</v>
+        <v>44894.42490740741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8174,14 +8174,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 19031-2024</t>
+          <t>A 36181-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45427</v>
+        <v>44803</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8231,14 +8231,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 24105-2025</t>
+          <t>A 60922-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45796.60096064815</v>
+        <v>45261.40866898148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>7.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8288,14 +8288,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 60934-2023</t>
+          <t>A 273-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45261.42775462963</v>
+        <v>45653</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8345,14 +8345,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 26256-2025</t>
+          <t>A 38465-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45805.58125</v>
+        <v>45162</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>7.5</v>
+        <v>0.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44621</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,14 +766,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 39620-2023</t>
+          <t>A 39613-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>45163</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,39 +786,227 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>15.2</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Talltita
+Kornig nållav
+Grönsiska
+Kungsfågel
+Vanlig padda
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39613-2023 artfynd.xlsx", "A 39613-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39613-2023 karta.png", "A 39613-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39613-2023 FSC-klagomål.docx", "A 39613-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39613-2023 FSC-klagomål mail.docx", "A 39613-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39613-2023 tillsynsbegäran.docx", "A 39613-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39613-2023 tillsynsbegäran mail.docx", "A 39613-2023")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39613-2023 prioriterade fågelarter.docx", "A 39613-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 51848-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45607</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SIGTUNA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Stare
+Svartvit flugsnappare
+Barkticka
+Myskmadra
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 51848-2024 artfynd.xlsx", "A 51848-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 51848-2024 karta.png", "A 51848-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 51848-2024 FSC-klagomål.docx", "A 51848-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 51848-2024 FSC-klagomål mail.docx", "A 51848-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 51848-2024 tillsynsbegäran.docx", "A 51848-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 51848-2024 tillsynsbegäran mail.docx", "A 51848-2024")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 51848-2024 prioriterade fågelarter.docx", "A 51848-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 39620-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SIGTUNA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Grönfink
 Duvhök
@@ -828,220 +1016,32 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39620-2023 artfynd.xlsx", "A 39620-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39620-2023 karta.png", "A 39620-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39620-2023 FSC-klagomål.docx", "A 39620-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39620-2023 FSC-klagomål mail.docx", "A 39620-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39620-2023 tillsynsbegäran.docx", "A 39620-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39620-2023 tillsynsbegäran mail.docx", "A 39620-2023")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39620-2023 prioriterade fågelarter.docx", "A 39620-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 39613-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45163</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SIGTUNA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Talltita
-Kornig nållav
-Grönsiska
-Kungsfågel
-Vanlig padda
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39613-2023 artfynd.xlsx", "A 39613-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39613-2023 karta.png", "A 39613-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39613-2023 FSC-klagomål.docx", "A 39613-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39613-2023 FSC-klagomål mail.docx", "A 39613-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39613-2023 tillsynsbegäran.docx", "A 39613-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39613-2023 tillsynsbegäran mail.docx", "A 39613-2023")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39613-2023 prioriterade fågelarter.docx", "A 39613-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 51848-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45607</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SIGTUNA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>6</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Stare
-Svartvit flugsnappare
-Barkticka
-Myskmadra
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 51848-2024 artfynd.xlsx", "A 51848-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 51848-2024 karta.png", "A 51848-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 51848-2024 FSC-klagomål.docx", "A 51848-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 51848-2024 FSC-klagomål mail.docx", "A 51848-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 51848-2024 tillsynsbegäran.docx", "A 51848-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 51848-2024 tillsynsbegäran mail.docx", "A 51848-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 51848-2024 prioriterade fågelarter.docx", "A 51848-2024")</f>
         <v/>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
         <v>44265</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>45786.53068287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44791</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45280</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>46043</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45520</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1593,14 +1593,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 15452-2023</t>
+          <t>A 39716-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45020</v>
+        <v>45166</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,13 +1612,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1627,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1642,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1652,49 +1647,49 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Trana</t>
+          <t>Hornuggla</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 15452-2023 artfynd.xlsx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39716-2023 artfynd.xlsx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 15452-2023 karta.png", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39716-2023 karta.png", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 15452-2023 FSC-klagomål.docx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39716-2023 FSC-klagomål.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 15452-2023 FSC-klagomål mail.docx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39716-2023 FSC-klagomål mail.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 15452-2023 tillsynsbegäran.docx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39716-2023 tillsynsbegäran.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 15452-2023 tillsynsbegäran mail.docx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39716-2023 tillsynsbegäran mail.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 15452-2023 prioriterade fågelarter.docx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39716-2023 prioriterade fågelarter.docx", "A 39716-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 51189-2022</t>
+          <t>A 64345-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44865</v>
+        <v>45280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,16 +1702,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>32.8</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1731,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1741,45 +1736,49 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 51189-2022 artfynd.xlsx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 64345-2023 artfynd.xlsx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 51189-2022 karta.png", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 64345-2023 karta.png", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 51189-2022 FSC-klagomål.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 64345-2023 FSC-klagomål.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 51189-2022 FSC-klagomål mail.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 64345-2023 FSC-klagomål mail.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 51189-2022 tillsynsbegäran.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 64345-2023 tillsynsbegäran.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 51189-2022 tillsynsbegäran mail.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 64345-2023 tillsynsbegäran mail.docx", "A 64345-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 64345-2023 prioriterade fågelarter.docx", "A 64345-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 64345-2023</t>
+          <t>A 51189-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45280</v>
+        <v>44865</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,17 +1791,17 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.7</v>
+        <v>32.8</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1816,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1826,49 +1825,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 64345-2023 artfynd.xlsx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 51189-2022 artfynd.xlsx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 64345-2023 karta.png", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 51189-2022 karta.png", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 64345-2023 FSC-klagomål.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 51189-2022 FSC-klagomål.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 64345-2023 FSC-klagomål mail.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 51189-2022 FSC-klagomål mail.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 64345-2023 tillsynsbegäran.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 51189-2022 tillsynsbegäran.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 64345-2023 tillsynsbegäran mail.docx", "A 64345-2023")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 64345-2023 prioriterade fågelarter.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 51189-2022 tillsynsbegäran mail.docx", "A 51189-2022")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 39716-2023</t>
+          <t>A 15452-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45166</v>
+        <v>45020</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,8 +1875,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1915,35 +1915,35 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Hornuggla</t>
+          <t>Trana</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39716-2023 artfynd.xlsx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 15452-2023 artfynd.xlsx", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39716-2023 karta.png", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 15452-2023 karta.png", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39716-2023 FSC-klagomål.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 15452-2023 FSC-klagomål.docx", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39716-2023 FSC-klagomål mail.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 15452-2023 FSC-klagomål mail.docx", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39716-2023 tillsynsbegäran.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 15452-2023 tillsynsbegäran.docx", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39716-2023 tillsynsbegäran mail.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 15452-2023 tillsynsbegäran mail.docx", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39716-2023 prioriterade fågelarter.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 15452-2023 prioriterade fågelarter.docx", "A 15452-2023")</f>
         <v/>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
         <v>44618.61763888889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44468</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44264</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44557</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44264.31767361111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2250,14 +2250,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 35953-2021</t>
+          <t>A 9767-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44385</v>
+        <v>44619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2307,14 +2307,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 11713-2021</t>
+          <t>A 35953-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44265.30173611111</v>
+        <v>44385</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2326,13 +2326,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2376,7 +2371,7 @@
         <v>44467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2426,14 +2421,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 31697-2022</t>
+          <t>A 11713-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44776</v>
+        <v>44265.30173611111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2447,11 +2442,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2488,14 +2483,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 11197-2021</t>
+          <t>A 65340-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44263.32083333333</v>
+        <v>44515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2507,8 +2502,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2545,14 +2545,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 9767-2022</t>
+          <t>A 31697-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44619</v>
+        <v>44776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2564,8 +2564,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2602,14 +2607,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 65340-2021</t>
+          <t>A 11197-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44515</v>
+        <v>44263.32083333333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2621,13 +2626,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2664,14 +2664,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 55112-2021</t>
+          <t>A 59168-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44474</v>
+        <v>44904.48028935185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2721,14 +2721,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 25459-2023</t>
+          <t>A 55112-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45089</v>
+        <v>44474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2738,11 +2738,6 @@
       <c r="E30" t="inlineStr">
         <is>
           <t>SIGTUNA</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -2783,14 +2778,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 7214-2022</t>
+          <t>A 20957-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44606.33935185185</v>
+        <v>45061</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2803,7 +2798,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2840,14 +2835,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 11285-2023</t>
+          <t>A 41702-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44992</v>
+        <v>45176</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2859,8 +2854,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2897,14 +2897,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 25452-2023</t>
+          <t>A 58619-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45089</v>
+        <v>45251.54119212963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2916,13 +2916,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2966,7 +2961,7 @@
         <v>45211.68196759259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3016,14 +3011,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 60865-2024</t>
+          <t>A 11718-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45644.69387731481</v>
+        <v>44265</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3035,8 +3030,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3073,14 +3073,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 40643-2024</t>
+          <t>A 5142-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45558</v>
+        <v>45330</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3130,14 +3130,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 6826-2025</t>
+          <t>A 32424-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45700.73123842593</v>
+        <v>45110</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3187,14 +3187,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 16734-2025</t>
+          <t>A 43700-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45754.53179398148</v>
+        <v>45187</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3244,14 +3244,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 51770-2023</t>
+          <t>A 61576-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45222.71855324074</v>
+        <v>45646.6218287037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.8</v>
+        <v>8.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3301,14 +3301,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 41949-2025</t>
+          <t>A 38276-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45903.45309027778</v>
+        <v>45160</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>18.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3358,14 +3358,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 41963-2025</t>
+          <t>A 45233-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45903.47229166667</v>
+        <v>45575</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3415,14 +3415,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 41951-2025</t>
+          <t>A 72530-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45903.45920138889</v>
+        <v>44546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41957-2025</t>
+          <t>A 20375-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45903.46525462963</v>
+        <v>45054</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 31684-2022</t>
+          <t>A 74170-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44776</v>
+        <v>44557</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3548,13 +3548,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3591,14 +3586,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 41841-2025</t>
+          <t>A 51770-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45902.72109953704</v>
+        <v>45222.71855324074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3611,7 +3606,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3648,14 +3643,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 35966-2024</t>
+          <t>A 59165-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45533</v>
+        <v>44904.4783912037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3668,7 +3663,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3705,14 +3700,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 61589-2024</t>
+          <t>A 17320-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45646.62961805556</v>
+        <v>45035.54853009259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3725,7 +3720,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3762,14 +3757,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 46757-2023</t>
+          <t>A 7214-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45198</v>
+        <v>44606.33935185185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3782,7 +3777,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3819,14 +3814,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 3890-2025</t>
+          <t>A 45319-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45684.36896990741</v>
+        <v>45191</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3838,8 +3833,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3876,14 +3876,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 43158-2024</t>
+          <t>A 26256-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45567</v>
+        <v>45805.58125</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3933,14 +3933,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 24946-2024</t>
+          <t>A 20960-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45461</v>
+        <v>45061</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>12.5</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3990,14 +3990,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 21513-2025</t>
+          <t>A 28851-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45782.63189814815</v>
+        <v>44749.47957175926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4047,14 +4047,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 9856-2024</t>
+          <t>A 29193-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45363</v>
+        <v>45822.70847222222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>7.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4104,14 +4104,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 37392-2024</t>
+          <t>A 17286-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45540</v>
+        <v>44678</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4161,14 +4161,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 19031-2024</t>
+          <t>A 28752-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45427</v>
+        <v>45478.57900462963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4218,14 +4218,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 35961-2024</t>
+          <t>A 42572-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45533</v>
+        <v>45565.64217592592</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4275,14 +4275,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 22402-2025</t>
+          <t>A 11285-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45786.53287037037</v>
+        <v>44992</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4332,14 +4332,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 48375-2024</t>
+          <t>A 60922-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45590.58184027778</v>
+        <v>45261.40866898148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4351,13 +4351,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4394,14 +4389,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 24636-2023</t>
+          <t>A 56796-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45084</v>
+        <v>44894.42490740741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4414,7 +4409,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.9</v>
+        <v>5.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4451,14 +4446,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 10790-2023</t>
+          <t>A 862-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44989.32980324074</v>
+        <v>44571</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4471,7 +4466,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4508,14 +4503,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 24105-2025</t>
+          <t>A 15428-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45796.60096064815</v>
+        <v>44285</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4527,8 +4522,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4565,14 +4565,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 24967-2024</t>
+          <t>A 40643-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45461</v>
+        <v>45558</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4622,14 +4622,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 862-2022</t>
+          <t>A 12931-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44571</v>
+        <v>44642</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4641,8 +4641,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4679,14 +4684,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 60934-2023</t>
+          <t>A 24636-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45261.42775462963</v>
+        <v>45084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4699,7 +4704,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4743,7 +4748,7 @@
         <v>44827</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4798,14 +4803,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 26256-2025</t>
+          <t>A 9856-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45805.58125</v>
+        <v>45363</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4818,7 +4823,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4855,14 +4860,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 12931-2022</t>
+          <t>A 273-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44642</v>
+        <v>45653</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4874,13 +4879,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4917,14 +4917,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 74170-2021</t>
+          <t>A 28681-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44557</v>
+        <v>45819.68207175926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>7.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4974,14 +4974,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 29193-2025</t>
+          <t>A 31695-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45822.70847222222</v>
+        <v>44776</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4993,8 +4993,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>7.3</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5031,14 +5036,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 47392-2025</t>
+          <t>A 32420-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45930.60368055556</v>
+        <v>45110</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5051,7 +5056,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5088,14 +5093,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 28752-2024</t>
+          <t>A 32426-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45478.57900462963</v>
+        <v>45110</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5108,7 +5113,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5145,14 +5150,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 41702-2023</t>
+          <t>A 46757-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45176</v>
+        <v>45198</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5164,13 +5169,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5207,14 +5207,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 36179-2022</t>
+          <t>A 10790-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44803</v>
+        <v>44989.32980324074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5264,14 +5264,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 17286-2022</t>
+          <t>A 25452-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44678</v>
+        <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5283,8 +5283,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5321,14 +5326,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28681-2025</t>
+          <t>A 25459-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45819.68207175926</v>
+        <v>45089</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5340,8 +5345,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>7.5</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5378,14 +5388,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 49916-2025</t>
+          <t>A 61937-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45940.62260416667</v>
+        <v>44502</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5398,7 +5408,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>14.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5435,14 +5445,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 42572-2024</t>
+          <t>A 59957-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45565.64217592592</v>
+        <v>45257</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5454,8 +5464,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5492,14 +5507,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 45233-2024</t>
+          <t>A 12900-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45575</v>
+        <v>44642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5512,7 +5527,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5545,18 +5560,38 @@
         <v>0</v>
       </c>
       <c r="R78" s="2" t="inlineStr"/>
+      <c r="U78">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/knärot/A 12900-2022 karta knärot.png", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="V78">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 12900-2022 FSC-klagomål.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="W78">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 12900-2022 FSC-klagomål mail.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="X78">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 12900-2022 tillsynsbegäran.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="Y78">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 12900-2022 tillsynsbegäran mail.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 59957-2023</t>
+          <t>A 2496-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45257</v>
+        <v>45313</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5570,11 +5605,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5611,14 +5646,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 11718-2021</t>
+          <t>A 19311-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44265</v>
+        <v>45769.57142361111</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5630,13 +5665,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5673,14 +5703,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 12900-2022</t>
+          <t>A 35966-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44642</v>
+        <v>45533</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5693,7 +5723,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.6</v>
+        <v>0.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5726,38 +5756,18 @@
         <v>0</v>
       </c>
       <c r="R81" s="2" t="inlineStr"/>
-      <c r="U81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/knärot/A 12900-2022 karta knärot.png", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="V81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 12900-2022 FSC-klagomål.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="W81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 12900-2022 FSC-klagomål mail.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="X81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 12900-2022 tillsynsbegäran.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="Y81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 12900-2022 tillsynsbegäran mail.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 31695-2022</t>
+          <t>A 36179-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44776</v>
+        <v>44803</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5769,13 +5779,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5812,14 +5817,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 17320-2023</t>
+          <t>A 36181-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45035.54853009259</v>
+        <v>44803</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5832,7 +5837,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5869,14 +5874,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 5142-2024</t>
+          <t>A 61589-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45330</v>
+        <v>45646.62961805556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5889,7 +5894,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5926,14 +5931,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 20957-2023</t>
+          <t>A 19294-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45061</v>
+        <v>45769.56142361111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5946,7 +5951,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.3</v>
+        <v>7.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5983,14 +5988,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 8673-2025</t>
+          <t>A 6826-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45712.4272337963</v>
+        <v>45700.73123842593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6002,13 +6007,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>9.6</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6045,14 +6045,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 59165-2022</t>
+          <t>A 60935-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44904.4783912037</v>
+        <v>45261</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6102,14 +6102,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 28851-2022</t>
+          <t>A 37392-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44749.47957175926</v>
+        <v>45540</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6159,14 +6159,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 9120-2025</t>
+          <t>A 38465-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45713.82875</v>
+        <v>45162</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6178,13 +6178,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>9.699999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6221,14 +6216,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 61937-2021</t>
+          <t>A 8673-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44502</v>
+        <v>45712.4272337963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6240,8 +6235,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>14.7</v>
+        <v>9.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 57871-2025</t>
+          <t>A 31684-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45981.6530787037</v>
+        <v>44776</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6297,8 +6297,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6335,14 +6340,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 57879-2025</t>
+          <t>A 41841-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45981.66293981481</v>
+        <v>45902.72109953704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6355,7 +6360,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6392,14 +6397,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 57881-2025</t>
+          <t>A 60865-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45981.66450231482</v>
+        <v>45644.69387731481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6412,7 +6417,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>8.1</v>
+        <v>0.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6449,14 +6454,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 45319-2023</t>
+          <t>A 41957-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45191</v>
+        <v>45903.46525462963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,13 +6473,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6511,14 +6511,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 19288-2025</t>
+          <t>A 41951-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45769</v>
+        <v>45903.45920138889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>14.5</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6568,14 +6568,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 19294-2025</t>
+          <t>A 41949-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45769.56142361111</v>
+        <v>45903.45309027778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>7.7</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6625,14 +6625,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 19311-2025</t>
+          <t>A 41963-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45769.57142361111</v>
+        <v>45903.47229166667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6682,14 +6682,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 2663-2026</t>
+          <t>A 9120-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46037.64071759259</v>
+        <v>45713.82875</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6701,8 +6701,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>16.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6739,14 +6744,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 2675-2026</t>
+          <t>A 24967-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46037.64938657408</v>
+        <v>45461</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6759,7 +6764,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>7.3</v>
+        <v>3.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6796,14 +6801,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 2628-2026</t>
+          <t>A 16734-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46037.60576388889</v>
+        <v>45754.53179398148</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6816,7 +6821,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6853,14 +6858,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 60935-2023</t>
+          <t>A 43158-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45261</v>
+        <v>45567</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6873,7 +6878,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6910,14 +6915,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 32420-2023</t>
+          <t>A 24946-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45110</v>
+        <v>45461</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6930,7 +6935,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.3</v>
+        <v>12.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6967,14 +6972,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 32426-2023</t>
+          <t>A 3890-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45110</v>
+        <v>45684.36896990741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6987,7 +6992,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7024,14 +7029,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 15428-2021</t>
+          <t>A 21513-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44285</v>
+        <v>45782.63189814815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7043,13 +7048,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7086,14 +7086,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 3673-2026</t>
+          <t>A 47392-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46043</v>
+        <v>45930.60368055556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7143,14 +7143,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 4788-2026</t>
+          <t>A 48375-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46048.56197916667</v>
+        <v>45590.58184027778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7162,8 +7162,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7200,14 +7205,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 5175-2026</t>
+          <t>A 22402-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46049.64638888889</v>
+        <v>45786.53287037037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7220,7 +7225,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7257,14 +7262,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 20375-2023</t>
+          <t>A 35961-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45054</v>
+        <v>45533</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7277,7 +7282,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7314,14 +7319,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 38276-2023</t>
+          <t>A 19031-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45160</v>
+        <v>45427</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7334,7 +7339,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>18.1</v>
+        <v>2.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7371,14 +7376,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 2496-2024</t>
+          <t>A 49916-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45313</v>
+        <v>45940.62260416667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7390,13 +7395,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7433,14 +7433,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 60949-2025</t>
+          <t>A 24105-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45996</v>
+        <v>45796.60096064815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>21.9</v>
+        <v>3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7490,14 +7490,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 59168-2022</t>
+          <t>A 60934-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44904.48028935185</v>
+        <v>45261.42775462963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7547,14 +7547,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 60969-2025</t>
+          <t>A 57879-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45996</v>
+        <v>45981.66293981481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>8.800000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7604,14 +7604,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 72530-2021</t>
+          <t>A 57881-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44546</v>
+        <v>45981.66450231482</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7661,14 +7661,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 6893-2026</t>
+          <t>A 57871-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46057.47671296296</v>
+        <v>45981.6530787037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7718,14 +7718,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 7229-2026</t>
+          <t>A 19288-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46058.57027777778</v>
+        <v>45769</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.8</v>
+        <v>14.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7775,14 +7775,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 7833-2026</t>
+          <t>A 2675-2026</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46062.64694444444</v>
+        <v>46037.64938657408</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.6</v>
+        <v>7.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7832,14 +7832,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 20960-2023</t>
+          <t>A 2628-2026</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45061</v>
+        <v>46037.60576388889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7889,14 +7889,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 32424-2023</t>
+          <t>A 2663-2026</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45110</v>
+        <v>46037.64071759259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.5</v>
+        <v>16.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7946,14 +7946,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 61576-2024</t>
+          <t>A 3673-2026</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45646.6218287037</v>
+        <v>46043</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>8.9</v>
+        <v>3.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8003,14 +8003,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 58619-2023</t>
+          <t>A 4788-2026</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45251.54119212963</v>
+        <v>46048.56197916667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8060,14 +8060,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 43700-2023</t>
+          <t>A 5175-2026</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45187</v>
+        <v>46049.64638888889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8117,14 +8117,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 56796-2022</t>
+          <t>A 60969-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44894.42490740741</v>
+        <v>45996</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8174,14 +8174,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 36181-2022</t>
+          <t>A 60949-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44803</v>
+        <v>45996</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.7</v>
+        <v>21.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8231,14 +8231,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 60922-2023</t>
+          <t>A 6893-2026</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45261.40866898148</v>
+        <v>46057.47671296296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8288,14 +8288,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 273-2025</t>
+          <t>A 7229-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45653</v>
+        <v>46058.57027777778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8345,14 +8345,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 38465-2023</t>
+          <t>A 7833-2026</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45162</v>
+        <v>46062.64694444444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44621</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,14 +766,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 39613-2023</t>
+          <t>A 39620-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>45163</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,39 +786,133 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>15.2</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
         <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Grönfink
+Duvhök
+Talltita
+Gröngöling
+Grönsiska
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39620-2023 artfynd.xlsx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39620-2023 karta.png", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39620-2023 FSC-klagomål.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39620-2023 FSC-klagomål mail.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39620-2023 tillsynsbegäran.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39620-2023 tillsynsbegäran mail.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39620-2023 prioriterade fågelarter.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 39613-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SIGTUNA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Talltita
 Kornig nållav
@@ -828,91 +922,91 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39613-2023 artfynd.xlsx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39613-2023 karta.png", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39613-2023 FSC-klagomål.docx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39613-2023 FSC-klagomål mail.docx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39613-2023 tillsynsbegäran.docx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39613-2023 tillsynsbegäran mail.docx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39613-2023 prioriterade fågelarter.docx", "A 39613-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 51848-2024</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>45607</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SIGTUNA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SIGTUNA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0.2</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>2</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K6" t="n">
         <v>1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L6" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>3</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P6" t="n">
         <v>2</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q6" t="n">
         <v>6</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Ask
 Stare
@@ -922,126 +1016,32 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 51848-2024 artfynd.xlsx", "A 51848-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 51848-2024 karta.png", "A 51848-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 51848-2024 FSC-klagomål.docx", "A 51848-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 51848-2024 FSC-klagomål mail.docx", "A 51848-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 51848-2024 tillsynsbegäran.docx", "A 51848-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 51848-2024 tillsynsbegäran mail.docx", "A 51848-2024")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 51848-2024 prioriterade fågelarter.docx", "A 51848-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 39620-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45163</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SIGTUNA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>6</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Grönfink
-Duvhök
-Talltita
-Gröngöling
-Grönsiska
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39620-2023 artfynd.xlsx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39620-2023 karta.png", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39620-2023 FSC-klagomål.docx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39620-2023 FSC-klagomål mail.docx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39620-2023 tillsynsbegäran.docx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39620-2023 tillsynsbegäran mail.docx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39620-2023 prioriterade fågelarter.docx", "A 39620-2023")</f>
         <v/>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
         <v>44265</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>45786.53068287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44791</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45280</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>46043</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,14 +1499,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 33751-2024</t>
+          <t>A 15452-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45520</v>
+        <v>45020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1548,59 +1548,59 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Trana</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 33751-2024 artfynd.xlsx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 15452-2023 artfynd.xlsx", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 33751-2024 karta.png", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 15452-2023 karta.png", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 33751-2024 FSC-klagomål.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 15452-2023 FSC-klagomål.docx", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 33751-2024 FSC-klagomål mail.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 15452-2023 FSC-klagomål mail.docx", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 33751-2024 tillsynsbegäran.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 15452-2023 tillsynsbegäran.docx", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 33751-2024 tillsynsbegäran mail.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 15452-2023 tillsynsbegäran mail.docx", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 33751-2024 prioriterade fågelarter.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 15452-2023 prioriterade fågelarter.docx", "A 15452-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 39716-2023</t>
+          <t>A 51189-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45166</v>
+        <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1613,10 +1613,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>32.8</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1647,35 +1647,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Hornuggla</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39716-2023 artfynd.xlsx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 51189-2022 artfynd.xlsx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39716-2023 karta.png", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 51189-2022 karta.png", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39716-2023 FSC-klagomål.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 51189-2022 FSC-klagomål.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39716-2023 FSC-klagomål mail.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 51189-2022 FSC-klagomål mail.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39716-2023 tillsynsbegäran.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 51189-2022 tillsynsbegäran.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39716-2023 tillsynsbegäran mail.docx", "A 39716-2023")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39716-2023 prioriterade fågelarter.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 51189-2022 tillsynsbegäran mail.docx", "A 51189-2022")</f>
         <v/>
       </c>
     </row>
@@ -1689,7 +1685,7 @@
         <v>45280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,14 +1767,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 51189-2022</t>
+          <t>A 39716-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44865</v>
+        <v>45166</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1791,10 +1787,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>32.8</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1825,45 +1821,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Hornuggla</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 51189-2022 artfynd.xlsx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39716-2023 artfynd.xlsx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 51189-2022 karta.png", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39716-2023 karta.png", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 51189-2022 FSC-klagomål.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39716-2023 FSC-klagomål.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 51189-2022 FSC-klagomål mail.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39716-2023 FSC-klagomål mail.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 51189-2022 tillsynsbegäran.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39716-2023 tillsynsbegäran.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 51189-2022 tillsynsbegäran mail.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39716-2023 tillsynsbegäran mail.docx", "A 39716-2023")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39716-2023 prioriterade fågelarter.docx", "A 39716-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 15452-2023</t>
+          <t>A 33751-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45020</v>
+        <v>45520</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1905,45 +1905,45 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Trana</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 15452-2023 artfynd.xlsx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 33751-2024 artfynd.xlsx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 15452-2023 karta.png", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 33751-2024 karta.png", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 15452-2023 FSC-klagomål.docx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 33751-2024 FSC-klagomål.docx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 15452-2023 FSC-klagomål mail.docx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 33751-2024 FSC-klagomål mail.docx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 15452-2023 tillsynsbegäran.docx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 33751-2024 tillsynsbegäran.docx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 15452-2023 tillsynsbegäran mail.docx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 33751-2024 tillsynsbegäran mail.docx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 15452-2023 prioriterade fågelarter.docx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 33751-2024 prioriterade fågelarter.docx", "A 33751-2024")</f>
         <v/>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
         <v>44618.61763888889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44468</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44264</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44557</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44264.31767361111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2250,14 +2250,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 9767-2022</t>
+          <t>A 35953-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44619</v>
+        <v>44385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2307,14 +2307,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 35953-2021</t>
+          <t>A 11713-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44385</v>
+        <v>44265.30173611111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2326,8 +2326,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,7 +2376,7 @@
         <v>44467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2421,14 +2426,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 11713-2021</t>
+          <t>A 31697-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44265.30173611111</v>
+        <v>44776</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2442,11 +2447,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2483,14 +2488,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 65340-2021</t>
+          <t>A 11197-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44515</v>
+        <v>44263.32083333333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2502,13 +2507,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2545,14 +2545,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 31697-2022</t>
+          <t>A 9767-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44776</v>
+        <v>44619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2564,13 +2564,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2607,14 +2602,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 11197-2021</t>
+          <t>A 65340-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44263.32083333333</v>
+        <v>44515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2626,8 +2621,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2664,14 +2664,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 59168-2022</t>
+          <t>A 55112-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44904.48028935185</v>
+        <v>44474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2721,14 +2721,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 55112-2021</t>
+          <t>A 25459-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44474</v>
+        <v>45089</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2738,6 +2738,11 @@
       <c r="E30" t="inlineStr">
         <is>
           <t>SIGTUNA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -2778,14 +2783,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 20957-2023</t>
+          <t>A 49592-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45061</v>
+        <v>45211.68196759259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2798,7 +2803,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2835,14 +2840,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 41702-2023</t>
+          <t>A 40643-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45176</v>
+        <v>45558</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2854,13 +2859,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2897,14 +2897,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 58619-2023</t>
+          <t>A 6826-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45251.54119212963</v>
+        <v>45700.73123842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2954,14 +2954,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 49592-2023</t>
+          <t>A 9856-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45211.68196759259</v>
+        <v>45363</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3011,14 +3011,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 11718-2021</t>
+          <t>A 24105-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44265</v>
+        <v>45796.60096064815</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3030,13 +3030,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3073,14 +3068,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 5142-2024</t>
+          <t>A 37392-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45330</v>
+        <v>45540</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3093,7 +3088,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3130,14 +3125,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 32424-2023</t>
+          <t>A 7229-2026</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45110</v>
+        <v>46058.57027777778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3150,7 +3145,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3187,14 +3182,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 43700-2023</t>
+          <t>A 60934-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45187</v>
+        <v>45261.42775462963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3207,7 +3202,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3244,14 +3239,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 61576-2024</t>
+          <t>A 24636-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45646.6218287037</v>
+        <v>45084</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3264,7 +3259,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>8.9</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3301,14 +3296,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 38276-2023</t>
+          <t>A 7833-2026</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45160</v>
+        <v>46062.64694444444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3321,7 +3316,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>18.1</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3358,14 +3353,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 45233-2024</t>
+          <t>A 26256-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45575</v>
+        <v>45805.58125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3378,7 +3373,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3415,14 +3410,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 72530-2021</t>
+          <t>A 10790-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44546</v>
+        <v>44989.32980324074</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3435,7 +3430,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3472,14 +3467,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 20375-2023</t>
+          <t>A 24967-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45054</v>
+        <v>45461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3492,7 +3487,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3529,14 +3524,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 74170-2021</t>
+          <t>A 862-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44557</v>
+        <v>44571</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3549,7 +3544,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3586,14 +3581,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 51770-2023</t>
+          <t>A 41693-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45222.71855324074</v>
+        <v>44827</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3605,8 +3600,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3643,14 +3643,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 59165-2022</t>
+          <t>A 29193-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44904.4783912037</v>
+        <v>45822.70847222222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>7.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3700,14 +3700,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 17320-2023</t>
+          <t>A 12931-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45035.54853009259</v>
+        <v>44642</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3719,8 +3719,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3757,14 +3762,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 7214-2022</t>
+          <t>A 74170-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44606.33935185185</v>
+        <v>44557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3777,7 +3782,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3814,14 +3819,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 45319-2023</t>
+          <t>A 41949-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45191</v>
+        <v>45903.45309027778</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3833,13 +3838,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3876,14 +3876,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 26256-2025</t>
+          <t>A 41963-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45805.58125</v>
+        <v>45903.47229166667</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3933,14 +3933,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 20960-2023</t>
+          <t>A 28752-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45061</v>
+        <v>45478.57900462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3990,14 +3990,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 28851-2022</t>
+          <t>A 41951-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44749.47957175926</v>
+        <v>45903.45920138889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4047,14 +4047,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 29193-2025</t>
+          <t>A 41957-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45822.70847222222</v>
+        <v>45903.46525462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>7.3</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4104,14 +4104,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 17286-2022</t>
+          <t>A 28681-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44678</v>
+        <v>45819.68207175926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4161,14 +4161,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 28752-2024</t>
+          <t>A 41841-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45478.57900462963</v>
+        <v>45902.72109953704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4218,14 +4218,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 42572-2024</t>
+          <t>A 41702-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45565.64217592592</v>
+        <v>45176</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4237,8 +4237,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4275,14 +4280,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 11285-2023</t>
+          <t>A 36179-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44992</v>
+        <v>44803</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4295,7 +4300,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>6.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4332,14 +4337,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 60922-2023</t>
+          <t>A 17286-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45261.40866898148</v>
+        <v>44678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4352,7 +4357,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>7.6</v>
+        <v>3.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4389,14 +4394,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 56796-2022</t>
+          <t>A 12900-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44894.42490740741</v>
+        <v>44642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4409,7 +4414,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4442,18 +4447,38 @@
         <v>0</v>
       </c>
       <c r="R59" s="2" t="inlineStr"/>
+      <c r="U59">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/knärot/A 12900-2022 karta knärot.png", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="V59">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 12900-2022 FSC-klagomål.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="W59">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 12900-2022 FSC-klagomål mail.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="X59">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 12900-2022 tillsynsbegäran.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="Y59">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 12900-2022 tillsynsbegäran mail.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 862-2022</t>
+          <t>A 42572-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44571</v>
+        <v>45565.64217592592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4466,7 +4491,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4503,14 +4528,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 15428-2021</t>
+          <t>A 45233-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44285</v>
+        <v>45575</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4522,13 +4547,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4565,14 +4585,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 40643-2024</t>
+          <t>A 59957-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45558</v>
+        <v>45257</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4584,8 +4604,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4622,14 +4647,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 12931-2022</t>
+          <t>A 11718-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44642</v>
+        <v>44265</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4643,11 +4668,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4684,14 +4709,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 24636-2023</t>
+          <t>A 47392-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45084</v>
+        <v>45930.60368055556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4704,7 +4729,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4741,14 +4766,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 41693-2022</t>
+          <t>A 31695-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44827</v>
+        <v>44776</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4762,11 +4787,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4803,14 +4828,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 9856-2024</t>
+          <t>A 17320-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45363</v>
+        <v>45035.54853009259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4860,14 +4885,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 273-2025</t>
+          <t>A 5142-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45653</v>
+        <v>45330</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4880,7 +4905,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4917,14 +4942,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28681-2025</t>
+          <t>A 20957-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45819.68207175926</v>
+        <v>45061</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4937,7 +4962,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>7.5</v>
+        <v>0.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4974,14 +4999,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 31695-2022</t>
+          <t>A 8673-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44776</v>
+        <v>45712.4272337963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4995,11 +5020,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.1</v>
+        <v>9.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5036,14 +5061,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 32420-2023</t>
+          <t>A 49916-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45110</v>
+        <v>45940.62260416667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5056,7 +5081,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5093,14 +5118,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 32426-2023</t>
+          <t>A 59165-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45110</v>
+        <v>44904.4783912037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5113,7 +5138,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5150,14 +5175,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 46757-2023</t>
+          <t>A 28851-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45198</v>
+        <v>44749.47957175926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5170,7 +5195,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5207,14 +5232,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10790-2023</t>
+          <t>A 9120-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44989.32980324074</v>
+        <v>45713.82875</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5226,8 +5251,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5264,14 +5294,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 25452-2023</t>
+          <t>A 61937-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45089</v>
+        <v>44502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5283,13 +5313,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>14.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5326,14 +5351,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 25459-2023</t>
+          <t>A 45319-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45089</v>
+        <v>45191</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5347,11 +5372,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5388,14 +5413,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 61937-2021</t>
+          <t>A 19294-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44502</v>
+        <v>45769.56142361111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5408,7 +5433,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>14.7</v>
+        <v>7.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5445,14 +5470,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 59957-2023</t>
+          <t>A 19311-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45257</v>
+        <v>45769.57142361111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5464,13 +5489,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>5.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5507,14 +5527,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 12900-2022</t>
+          <t>A 60935-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44642</v>
+        <v>45261</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5527,7 +5547,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5.6</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5560,38 +5580,18 @@
         <v>0</v>
       </c>
       <c r="R78" s="2" t="inlineStr"/>
-      <c r="U78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/knärot/A 12900-2022 karta knärot.png", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="V78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 12900-2022 FSC-klagomål.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="W78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 12900-2022 FSC-klagomål mail.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="X78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 12900-2022 tillsynsbegäran.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="Y78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 12900-2022 tillsynsbegäran mail.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 2496-2024</t>
+          <t>A 57871-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45313</v>
+        <v>45981.6530787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5603,13 +5603,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5646,14 +5641,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 19311-2025</t>
+          <t>A 32420-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45769.57142361111</v>
+        <v>45110</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5666,7 +5661,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5703,14 +5698,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 35966-2024</t>
+          <t>A 32426-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45533</v>
+        <v>45110</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5723,7 +5718,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5760,14 +5755,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 36179-2022</t>
+          <t>A 57879-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44803</v>
+        <v>45981.66293981481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5780,7 +5775,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6.1</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5817,14 +5812,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 36181-2022</t>
+          <t>A 57881-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44803</v>
+        <v>45981.66450231482</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5837,7 +5832,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>8.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5874,14 +5869,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 61589-2024</t>
+          <t>A 15428-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45646.62961805556</v>
+        <v>44285</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5893,8 +5888,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5931,14 +5931,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 19294-2025</t>
+          <t>A 19288-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45769.56142361111</v>
+        <v>45769</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>7.7</v>
+        <v>14.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5988,14 +5988,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 6826-2025</t>
+          <t>A 20375-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45700.73123842593</v>
+        <v>45054</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6045,14 +6045,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 60935-2023</t>
+          <t>A 38276-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45261</v>
+        <v>45160</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>18.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6102,14 +6102,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 37392-2024</t>
+          <t>A 2496-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45540</v>
+        <v>45313</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6121,8 +6121,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6159,14 +6164,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 38465-2023</t>
+          <t>A 59168-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45162</v>
+        <v>44904.48028935185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6179,7 +6184,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6216,14 +6221,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 8673-2025</t>
+          <t>A 2663-2026</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45712.4272337963</v>
+        <v>46037.64071759259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6235,13 +6240,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>9.6</v>
+        <v>16.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 31684-2022</t>
+          <t>A 72530-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44776</v>
+        <v>44546</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6297,13 +6297,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6340,14 +6335,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 41841-2025</t>
+          <t>A 2675-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45902.72109953704</v>
+        <v>46037.64938657408</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6355,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>7.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6397,14 +6392,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 60865-2024</t>
+          <t>A 2628-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45644.69387731481</v>
+        <v>46037.60576388889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6412,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6454,14 +6449,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41957-2025</t>
+          <t>A 3673-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45903.46525462963</v>
+        <v>46043</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6469,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6511,14 +6506,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 41951-2025</t>
+          <t>A 4788-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45903.45920138889</v>
+        <v>46048.56197916667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6531,7 +6526,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6568,14 +6563,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 41949-2025</t>
+          <t>A 5175-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45903.45309027778</v>
+        <v>46049.64638888889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6588,7 +6583,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6625,14 +6620,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 41963-2025</t>
+          <t>A 20960-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45903.47229166667</v>
+        <v>45061</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6645,7 +6640,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6682,14 +6677,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 9120-2025</t>
+          <t>A 60949-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45713.82875</v>
+        <v>45996</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6701,13 +6696,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>9.699999999999999</v>
+        <v>21.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6744,14 +6734,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 24967-2024</t>
+          <t>A 60969-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45461</v>
+        <v>45996</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6754,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6801,14 +6791,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 16734-2025</t>
+          <t>A 6893-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45754.53179398148</v>
+        <v>46057.47671296296</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6811,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6858,14 +6848,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 43158-2024</t>
+          <t>A 32424-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45567</v>
+        <v>45110</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6868,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6915,14 +6905,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 24946-2024</t>
+          <t>A 61576-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45461</v>
+        <v>45646.6218287037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6925,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>12.5</v>
+        <v>8.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6972,14 +6962,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 3890-2025</t>
+          <t>A 58619-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45684.36896990741</v>
+        <v>45251.54119212963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6992,7 +6982,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7029,14 +7019,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 21513-2025</t>
+          <t>A 43700-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45782.63189814815</v>
+        <v>45187</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7049,7 +7039,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7086,14 +7076,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 47392-2025</t>
+          <t>A 56796-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45930.60368055556</v>
+        <v>44894.42490740741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7106,7 +7096,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7143,14 +7133,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 48375-2024</t>
+          <t>A 36181-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45590.58184027778</v>
+        <v>44803</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7162,13 +7152,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7205,14 +7190,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 22402-2025</t>
+          <t>A 60922-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45786.53287037037</v>
+        <v>45261.40866898148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7210,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.1</v>
+        <v>7.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7262,14 +7247,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 35961-2024</t>
+          <t>A 273-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45533</v>
+        <v>45653</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7282,7 +7267,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7319,14 +7304,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 19031-2024</t>
+          <t>A 38465-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45427</v>
+        <v>45162</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7339,7 +7324,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7376,14 +7361,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 49916-2025</t>
+          <t>A 7214-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45940.62260416667</v>
+        <v>44606.33935185185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7396,7 +7381,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7433,14 +7418,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 24105-2025</t>
+          <t>A 11285-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45796.60096064815</v>
+        <v>44992</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7453,7 +7438,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7490,14 +7475,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 60934-2023</t>
+          <t>A 25452-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45261.42775462963</v>
+        <v>45089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7509,8 +7494,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7547,14 +7537,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 57879-2025</t>
+          <t>A 60865-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45981.66293981481</v>
+        <v>45644.69387731481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7567,7 +7557,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7604,14 +7594,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 57881-2025</t>
+          <t>A 16734-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45981.66450231482</v>
+        <v>45754.53179398148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7624,7 +7614,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7661,14 +7651,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 57871-2025</t>
+          <t>A 51770-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45981.6530787037</v>
+        <v>45222.71855324074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7681,7 +7671,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7718,14 +7708,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 19288-2025</t>
+          <t>A 31684-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45769</v>
+        <v>44776</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7737,8 +7727,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>14.5</v>
+        <v>2.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7775,14 +7770,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 2675-2026</t>
+          <t>A 35966-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46037.64938657408</v>
+        <v>45533</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7795,7 +7790,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>7.3</v>
+        <v>0.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7832,14 +7827,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 2628-2026</t>
+          <t>A 61589-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46037.60576388889</v>
+        <v>45646.62961805556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7852,7 +7847,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7889,14 +7884,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 2663-2026</t>
+          <t>A 46757-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46037.64071759259</v>
+        <v>45198</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7909,7 +7904,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>16.7</v>
+        <v>5.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7946,14 +7941,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 3673-2026</t>
+          <t>A 3890-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46043</v>
+        <v>45684.36896990741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7966,7 +7961,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8003,14 +7998,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 4788-2026</t>
+          <t>A 43158-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46048.56197916667</v>
+        <v>45567</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8023,7 +8018,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8060,14 +8055,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 5175-2026</t>
+          <t>A 24946-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46049.64638888889</v>
+        <v>45461</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8080,7 +8075,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.4</v>
+        <v>12.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8117,14 +8112,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 60969-2025</t>
+          <t>A 21513-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45996</v>
+        <v>45782.63189814815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8137,7 +8132,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>8.800000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8174,14 +8169,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 60949-2025</t>
+          <t>A 19031-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45996</v>
+        <v>45427</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8194,7 +8189,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>21.9</v>
+        <v>2.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8231,14 +8226,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 6893-2026</t>
+          <t>A 35961-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46057.47671296296</v>
+        <v>45533</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8251,7 +8246,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8288,14 +8283,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 7229-2026</t>
+          <t>A 22402-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46058.57027777778</v>
+        <v>45786.53287037037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8308,7 +8303,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8345,14 +8340,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 7833-2026</t>
+          <t>A 48375-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46062.64694444444</v>
+        <v>45590.58184027778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8364,8 +8359,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44621</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>45163</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>45607</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44265</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>45786.53068287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44791</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45280</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>46043</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45166</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>45520</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>44618.61763888889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44468</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44264</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44557</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44264.31767361111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44265.30173611111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44776</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44263.32083333333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>45089</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>45211.68196759259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>45558</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>45700.73123842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2954,14 +2954,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 9856-2024</t>
+          <t>A 48375-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45363</v>
+        <v>45590.58184027778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2973,8 +2973,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3011,14 +3016,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 24105-2025</t>
+          <t>A 9856-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45796.60096064815</v>
+        <v>45363</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3031,7 +3036,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3068,14 +3073,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 37392-2024</t>
+          <t>A 24105-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45540</v>
+        <v>45796.60096064815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3088,7 +3093,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3125,14 +3130,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 7229-2026</t>
+          <t>A 37392-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46058.57027777778</v>
+        <v>45540</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3145,7 +3150,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3182,14 +3187,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 60934-2023</t>
+          <t>A 3673-2026</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45261.42775462963</v>
+        <v>46043</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3202,7 +3207,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3239,14 +3244,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 24636-2023</t>
+          <t>A 60934-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45084</v>
+        <v>45261.42775462963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3259,7 +3264,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3296,14 +3301,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 7833-2026</t>
+          <t>A 24636-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>46062.64694444444</v>
+        <v>45084</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3316,7 +3321,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3360,7 +3365,7 @@
         <v>45805.58125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3410,14 +3415,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 10790-2023</t>
+          <t>A 41949-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44989.32980324074</v>
+        <v>45903.45309027778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3430,7 +3435,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3467,14 +3472,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 24967-2024</t>
+          <t>A 41963-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45461</v>
+        <v>45903.47229166667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3487,7 +3492,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3524,14 +3529,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 862-2022</t>
+          <t>A 10790-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44571</v>
+        <v>44989.32980324074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3544,7 +3549,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3581,14 +3586,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 41693-2022</t>
+          <t>A 41951-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44827</v>
+        <v>45903.45920138889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3600,13 +3605,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3643,14 +3643,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 29193-2025</t>
+          <t>A 41957-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45822.70847222222</v>
+        <v>45903.46525462963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>7.3</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3700,14 +3700,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 12931-2022</t>
+          <t>A 41841-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44642</v>
+        <v>45902.72109953704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3719,13 +3719,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3762,14 +3757,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 74170-2021</t>
+          <t>A 24967-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44557</v>
+        <v>45461</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3782,7 +3777,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3819,14 +3814,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 41949-2025</t>
+          <t>A 862-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45903.45309027778</v>
+        <v>44571</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3839,7 +3834,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3876,14 +3871,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 41963-2025</t>
+          <t>A 41693-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45903.47229166667</v>
+        <v>44827</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3895,8 +3890,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3933,14 +3933,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 28752-2024</t>
+          <t>A 29193-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45478.57900462963</v>
+        <v>45822.70847222222</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>7.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3990,14 +3990,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 41951-2025</t>
+          <t>A 4788-2026</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45903.45920138889</v>
+        <v>46048.56197916667</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4047,14 +4047,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 41957-2025</t>
+          <t>A 5175-2026</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45903.46525462963</v>
+        <v>46049.64638888889</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4104,14 +4104,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 28681-2025</t>
+          <t>A 60949-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45819.68207175926</v>
+        <v>45996</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>7.5</v>
+        <v>21.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4161,14 +4161,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 41841-2025</t>
+          <t>A 12931-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45902.72109953704</v>
+        <v>44642</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4180,8 +4180,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4218,14 +4223,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 41702-2023</t>
+          <t>A 74170-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45176</v>
+        <v>44557</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4237,13 +4242,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4280,14 +4280,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 36179-2022</t>
+          <t>A 60969-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44803</v>
+        <v>45996</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4337,14 +4337,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 17286-2022</t>
+          <t>A 47392-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44678</v>
+        <v>45930.60368055556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4394,14 +4394,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 12900-2022</t>
+          <t>A 28681-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44642</v>
+        <v>45819.68207175926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4447,38 +4447,18 @@
         <v>0</v>
       </c>
       <c r="R59" s="2" t="inlineStr"/>
-      <c r="U59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/knärot/A 12900-2022 karta knärot.png", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 12900-2022 FSC-klagomål.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 12900-2022 FSC-klagomål mail.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 12900-2022 tillsynsbegäran.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 12900-2022 tillsynsbegäran mail.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 42572-2024</t>
+          <t>A 28752-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45565.64217592592</v>
+        <v>45478.57900462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4491,7 +4471,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4528,14 +4508,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 45233-2024</t>
+          <t>A 49916-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45575</v>
+        <v>45940.62260416667</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4585,14 +4565,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 59957-2023</t>
+          <t>A 41702-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45257</v>
+        <v>45176</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4606,11 +4586,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4647,14 +4627,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 11718-2021</t>
+          <t>A 36179-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44265</v>
+        <v>44803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4666,13 +4646,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>1.6</v>
+        <v>6.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4709,14 +4684,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 47392-2025</t>
+          <t>A 12900-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45930.60368055556</v>
+        <v>44642</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4729,7 +4704,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.3</v>
+        <v>5.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4762,18 +4737,38 @@
         <v>0</v>
       </c>
       <c r="R64" s="2" t="inlineStr"/>
+      <c r="U64">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/knärot/A 12900-2022 karta knärot.png", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="V64">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 12900-2022 FSC-klagomål.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="W64">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 12900-2022 FSC-klagomål mail.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="X64">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 12900-2022 tillsynsbegäran.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="Y64">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 12900-2022 tillsynsbegäran mail.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 31695-2022</t>
+          <t>A 6893-2026</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44776</v>
+        <v>46057.47671296296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4785,13 +4780,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4828,14 +4818,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 17320-2023</t>
+          <t>A 17286-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45035.54853009259</v>
+        <v>44678</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4848,7 +4838,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4885,14 +4875,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 5142-2024</t>
+          <t>A 7229-2026</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45330</v>
+        <v>46058.57027777778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4905,7 +4895,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4942,14 +4932,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20957-2023</t>
+          <t>A 42572-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45061</v>
+        <v>45565.64217592592</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4962,7 +4952,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4999,14 +4989,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 8673-2025</t>
+          <t>A 7833-2026</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45712.4272337963</v>
+        <v>46062.64694444444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5018,13 +5008,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>9.6</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5061,14 +5046,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 49916-2025</t>
+          <t>A 45233-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45940.62260416667</v>
+        <v>45575</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5118,14 +5103,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 59165-2022</t>
+          <t>A 59957-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44904.4783912037</v>
+        <v>45257</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,6 +5120,11 @@
       <c r="E71" t="inlineStr">
         <is>
           <t>SIGTUNA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -5175,14 +5165,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 28851-2022</t>
+          <t>A 11718-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44749.47957175926</v>
+        <v>44265</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5194,8 +5184,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5232,14 +5227,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9120-2025</t>
+          <t>A 57871-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45713.82875</v>
+        <v>45981.6530787037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5251,13 +5246,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>9.699999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5294,14 +5284,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 61937-2021</t>
+          <t>A 57879-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44502</v>
+        <v>45981.66293981481</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5314,7 +5304,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>14.7</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5351,14 +5341,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 45319-2023</t>
+          <t>A 57881-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45191</v>
+        <v>45981.66450231482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5370,13 +5360,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>2.7</v>
+        <v>8.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5413,14 +5398,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 19294-2025</t>
+          <t>A 19288-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45769.56142361111</v>
+        <v>45769</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5433,7 +5418,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>7.7</v>
+        <v>14.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5470,14 +5455,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 19311-2025</t>
+          <t>A 31695-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45769.57142361111</v>
+        <v>44776</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5489,8 +5474,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5527,14 +5517,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 60935-2023</t>
+          <t>A 17320-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45261</v>
+        <v>45035.54853009259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5547,7 +5537,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5584,14 +5574,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 57871-2025</t>
+          <t>A 5142-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45981.6530787037</v>
+        <v>45330</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5604,7 +5594,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5641,14 +5631,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 32420-2023</t>
+          <t>A 20957-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45110</v>
+        <v>45061</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5661,7 +5651,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5.3</v>
+        <v>0.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5698,14 +5688,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 32426-2023</t>
+          <t>A 8673-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45110</v>
+        <v>45712.4272337963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5717,8 +5707,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>3.1</v>
+        <v>9.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5755,14 +5750,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 57879-2025</t>
+          <t>A 2663-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45981.66293981481</v>
+        <v>46037.64071759259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5775,7 +5770,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>16.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5812,14 +5807,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 57881-2025</t>
+          <t>A 2675-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45981.66450231482</v>
+        <v>46037.64938657408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5832,7 +5827,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5869,14 +5864,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 15428-2021</t>
+          <t>A 59165-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44285</v>
+        <v>44904.4783912037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5888,13 +5883,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5931,14 +5921,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 19288-2025</t>
+          <t>A 28851-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45769</v>
+        <v>44749.47957175926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5951,7 +5941,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>14.5</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5988,14 +5978,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 20375-2023</t>
+          <t>A 2628-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45054</v>
+        <v>46037.60576388889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6008,7 +5998,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6045,14 +6035,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 38276-2023</t>
+          <t>A 9120-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45160</v>
+        <v>45713.82875</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6064,8 +6054,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>18.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6102,14 +6097,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 2496-2024</t>
+          <t>A 61937-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45313</v>
+        <v>44502</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6121,13 +6116,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>3.3</v>
+        <v>14.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6164,14 +6154,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 59168-2022</t>
+          <t>A 45319-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44904.48028935185</v>
+        <v>45191</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6183,8 +6173,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6221,14 +6216,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 2663-2026</t>
+          <t>A 19294-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46037.64071759259</v>
+        <v>45769.56142361111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6236,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>16.7</v>
+        <v>7.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6278,14 +6273,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 72530-2021</t>
+          <t>A 19311-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44546</v>
+        <v>45769.57142361111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6293,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6335,14 +6330,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 2675-2026</t>
+          <t>A 60935-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46037.64938657408</v>
+        <v>45261</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6355,7 +6350,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>7.3</v>
+        <v>1.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6392,14 +6387,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 2628-2026</t>
+          <t>A 32420-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46037.60576388889</v>
+        <v>45110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6412,7 +6407,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6449,14 +6444,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 3673-2026</t>
+          <t>A 32426-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46043</v>
+        <v>45110</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6469,7 +6464,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6506,14 +6501,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 4788-2026</t>
+          <t>A 15428-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46048.56197916667</v>
+        <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6525,8 +6520,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6563,14 +6563,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 5175-2026</t>
+          <t>A 20375-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46049.64638888889</v>
+        <v>45054</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6620,14 +6620,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 20960-2023</t>
+          <t>A 38276-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45061</v>
+        <v>45160</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>18.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6677,14 +6677,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 60949-2025</t>
+          <t>A 2496-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45996</v>
+        <v>45313</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6696,8 +6696,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>21.9</v>
+        <v>3.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6734,14 +6739,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 60969-2025</t>
+          <t>A 59168-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45996</v>
+        <v>44904.48028935185</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6754,7 +6759,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>8.800000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6791,14 +6796,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 6893-2026</t>
+          <t>A 72530-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46057.47671296296</v>
+        <v>44546</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6811,7 +6816,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6848,14 +6853,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 32424-2023</t>
+          <t>A 20960-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45110</v>
+        <v>45061</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6868,7 +6873,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6905,14 +6910,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 61576-2024</t>
+          <t>A 32424-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45646.6218287037</v>
+        <v>45110</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6925,7 +6930,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>8.9</v>
+        <v>2.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6962,14 +6967,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 58619-2023</t>
+          <t>A 61576-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45251.54119212963</v>
+        <v>45646.6218287037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6982,7 +6987,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.8</v>
+        <v>8.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7019,14 +7024,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 43700-2023</t>
+          <t>A 58619-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45187</v>
+        <v>45251.54119212963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7039,7 +7044,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7076,14 +7081,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 56796-2022</t>
+          <t>A 43700-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44894.42490740741</v>
+        <v>45187</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7096,7 +7101,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.2</v>
+        <v>1.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7133,14 +7138,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 36181-2022</t>
+          <t>A 56796-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44803</v>
+        <v>44894.42490740741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7153,7 +7158,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7190,14 +7195,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 60922-2023</t>
+          <t>A 36181-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45261.40866898148</v>
+        <v>44803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7210,7 +7215,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>7.6</v>
+        <v>1.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7247,14 +7252,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 273-2025</t>
+          <t>A 60922-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45653</v>
+        <v>45261.40866898148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7267,7 +7272,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.6</v>
+        <v>7.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7304,14 +7309,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 38465-2023</t>
+          <t>A 273-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45162</v>
+        <v>45653</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7324,7 +7329,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7361,14 +7366,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 7214-2022</t>
+          <t>A 38465-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44606.33935185185</v>
+        <v>45162</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7381,7 +7386,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7418,14 +7423,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 11285-2023</t>
+          <t>A 7214-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44992</v>
+        <v>44606.33935185185</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7438,7 +7443,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7475,14 +7480,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 25452-2023</t>
+          <t>A 11285-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45089</v>
+        <v>44992</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,11 +7497,6 @@
       <c r="E112" t="inlineStr">
         <is>
           <t>SIGTUNA</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -7537,14 +7537,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 60865-2024</t>
+          <t>A 25452-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45644.69387731481</v>
+        <v>45089</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7556,8 +7556,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7594,14 +7599,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 16734-2025</t>
+          <t>A 60865-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45754.53179398148</v>
+        <v>45644.69387731481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7614,7 +7619,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>7</v>
+        <v>0.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7651,14 +7656,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 51770-2023</t>
+          <t>A 16734-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45222.71855324074</v>
+        <v>45754.53179398148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7671,7 +7676,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7708,14 +7713,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 31684-2022</t>
+          <t>A 51770-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44776</v>
+        <v>45222.71855324074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7727,13 +7732,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7770,14 +7770,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 35966-2024</t>
+          <t>A 31684-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45533</v>
+        <v>44776</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7789,8 +7789,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7827,14 +7832,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 61589-2024</t>
+          <t>A 35966-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45646.62961805556</v>
+        <v>45533</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7847,7 +7852,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7884,14 +7889,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 46757-2023</t>
+          <t>A 61589-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45198</v>
+        <v>45646.62961805556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7904,7 +7909,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7941,14 +7946,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 3890-2025</t>
+          <t>A 46757-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45684.36896990741</v>
+        <v>45198</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7961,7 +7966,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.9</v>
+        <v>5.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7998,14 +8003,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 43158-2024</t>
+          <t>A 3890-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45567</v>
+        <v>45684.36896990741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8018,7 +8023,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8055,14 +8060,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 24946-2024</t>
+          <t>A 43158-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45461</v>
+        <v>45567</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8075,7 +8080,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8112,14 +8117,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 21513-2025</t>
+          <t>A 24946-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45782.63189814815</v>
+        <v>45461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8132,7 +8137,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.2</v>
+        <v>12.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8169,14 +8174,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 19031-2024</t>
+          <t>A 21513-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45427</v>
+        <v>45782.63189814815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8189,7 +8194,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8226,14 +8231,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 35961-2024</t>
+          <t>A 19031-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45533</v>
+        <v>45427</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8246,7 +8251,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8283,14 +8288,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 22402-2025</t>
+          <t>A 35961-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45786.53287037037</v>
+        <v>45533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8303,7 +8308,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8340,14 +8345,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 48375-2024</t>
+          <t>A 22402-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45590.58184027778</v>
+        <v>45786.53287037037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8359,13 +8364,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44621</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>45163</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>45607</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44265</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>45786.53068287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44791</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45280</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>46043</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45166</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>45520</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>44618.61763888889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44468</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44264</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44557</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44264.31767361111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44265.30173611111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44776</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44263.32083333333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>45089</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>45211.68196759259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>45558</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>45700.73123842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2954,14 +2954,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 48375-2024</t>
+          <t>A 19031-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45590.58184027778</v>
+        <v>45427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2973,13 +2973,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3016,14 +3011,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 9856-2024</t>
+          <t>A 35961-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45363</v>
+        <v>45533</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3036,7 +3031,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3073,14 +3068,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 24105-2025</t>
+          <t>A 22402-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45796.60096064815</v>
+        <v>45786.53287037037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3093,7 +3088,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3130,14 +3125,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 37392-2024</t>
+          <t>A 48375-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45540</v>
+        <v>45590.58184027778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3149,8 +3144,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3187,14 +3187,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 3673-2026</t>
+          <t>A 24105-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46043</v>
+        <v>45796.60096064815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>45261.42775462963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3301,14 +3301,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 24636-2023</t>
+          <t>A 9856-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45084</v>
+        <v>45363</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3358,14 +3358,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 26256-2025</t>
+          <t>A 37392-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45805.58125</v>
+        <v>45540</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3415,14 +3415,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 41949-2025</t>
+          <t>A 26256-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45903.45309027778</v>
+        <v>45805.58125</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>7.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41963-2025</t>
+          <t>A 41949-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45903.47229166667</v>
+        <v>45903.45309027778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 10790-2023</t>
+          <t>A 41963-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44989.32980324074</v>
+        <v>45903.47229166667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3586,14 +3586,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 41951-2025</t>
+          <t>A 57871-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45903.45920138889</v>
+        <v>45981.6530787037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3643,14 +3643,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 41957-2025</t>
+          <t>A 41951-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45903.46525462963</v>
+        <v>45903.45920138889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3700,14 +3700,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 41841-2025</t>
+          <t>A 24636-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45902.72109953704</v>
+        <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3757,14 +3757,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 24967-2024</t>
+          <t>A 41957-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45461</v>
+        <v>45903.46525462963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3814,14 +3814,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 862-2022</t>
+          <t>A 57879-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44571</v>
+        <v>45981.66293981481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3871,14 +3871,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 41693-2022</t>
+          <t>A 57881-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44827</v>
+        <v>45981.66450231482</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3890,13 +3890,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>8.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3933,14 +3928,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 29193-2025</t>
+          <t>A 41841-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45822.70847222222</v>
+        <v>45902.72109953704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3953,7 +3948,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>7.3</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3990,14 +3985,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 4788-2026</t>
+          <t>A 10790-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>46048.56197916667</v>
+        <v>44989.32980324074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4010,7 +4005,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4047,14 +4042,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 5175-2026</t>
+          <t>A 24967-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46049.64638888889</v>
+        <v>45461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4067,7 +4062,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4104,14 +4099,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 60949-2025</t>
+          <t>A 862-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45996</v>
+        <v>44571</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4124,7 +4119,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>21.9</v>
+        <v>2.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4161,14 +4156,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 12931-2022</t>
+          <t>A 41693-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44642</v>
+        <v>44827</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4182,11 +4177,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4223,14 +4218,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 74170-2021</t>
+          <t>A 29193-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44557</v>
+        <v>45822.70847222222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4243,7 +4238,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>7.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4280,14 +4275,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 60969-2025</t>
+          <t>A 47392-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45996</v>
+        <v>45930.60368055556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4300,7 +4295,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>8.800000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4337,14 +4332,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 47392-2025</t>
+          <t>A 12931-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45930.60368055556</v>
+        <v>44642</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4356,8 +4351,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4394,14 +4394,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28681-2025</t>
+          <t>A 74170-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45819.68207175926</v>
+        <v>44557</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>7.5</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4451,14 +4451,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 28752-2024</t>
+          <t>A 49916-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45478.57900462963</v>
+        <v>45940.62260416667</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4508,14 +4508,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 49916-2025</t>
+          <t>A 19288-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45940.62260416667</v>
+        <v>45769</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>14.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4565,14 +4565,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 41702-2023</t>
+          <t>A 28752-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45176</v>
+        <v>45478.57900462963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4584,13 +4584,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4627,14 +4622,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 36179-2022</t>
+          <t>A 28681-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44803</v>
+        <v>45819.68207175926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4647,7 +4642,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4684,14 +4679,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 12900-2022</t>
+          <t>A 41702-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44642</v>
+        <v>45176</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4703,8 +4698,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4737,38 +4737,18 @@
         <v>0</v>
       </c>
       <c r="R64" s="2" t="inlineStr"/>
-      <c r="U64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/knärot/A 12900-2022 karta knärot.png", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="V64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 12900-2022 FSC-klagomål.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="W64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 12900-2022 FSC-klagomål mail.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="X64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 12900-2022 tillsynsbegäran.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="Y64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 12900-2022 tillsynsbegäran mail.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 6893-2026</t>
+          <t>A 36179-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46057.47671296296</v>
+        <v>44803</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4781,7 +4761,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4825,7 +4805,7 @@
         <v>44678</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4875,14 +4855,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 7229-2026</t>
+          <t>A 12900-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46058.57027777778</v>
+        <v>44642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4895,7 +4875,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4928,6 +4908,26 @@
         <v>0</v>
       </c>
       <c r="R67" s="2" t="inlineStr"/>
+      <c r="U67">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/knärot/A 12900-2022 karta knärot.png", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="V67">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 12900-2022 FSC-klagomål.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="W67">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 12900-2022 FSC-klagomål mail.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="X67">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 12900-2022 tillsynsbegäran.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="Y67">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 12900-2022 tillsynsbegäran mail.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
     </row>
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
@@ -4939,7 +4939,7 @@
         <v>45565.64217592592</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4989,14 +4989,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 7833-2026</t>
+          <t>A 45233-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46062.64694444444</v>
+        <v>45575</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5046,14 +5046,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 45233-2024</t>
+          <t>A 59957-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45575</v>
+        <v>45257</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5063,6 +5063,11 @@
       <c r="E70" t="inlineStr">
         <is>
           <t>SIGTUNA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -5103,14 +5108,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 59957-2023</t>
+          <t>A 2663-2026</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45257</v>
+        <v>46037.64071759259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5122,13 +5127,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>16.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5165,14 +5165,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 11718-2021</t>
+          <t>A 2675-2026</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44265</v>
+        <v>46037.64938657408</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5184,13 +5184,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>7.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5227,14 +5222,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 57871-2025</t>
+          <t>A 2628-2026</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45981.6530787037</v>
+        <v>46037.60576388889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5247,7 +5242,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5284,14 +5279,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 57879-2025</t>
+          <t>A 11718-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45981.66293981481</v>
+        <v>44265</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5303,8 +5298,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5341,14 +5341,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 57881-2025</t>
+          <t>A 31695-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45981.66450231482</v>
+        <v>44776</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5360,8 +5360,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>8.1</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5398,14 +5403,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 19288-2025</t>
+          <t>A 17320-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45769</v>
+        <v>45035.54853009259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5418,7 +5423,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>14.5</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5455,14 +5460,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 31695-2022</t>
+          <t>A 3673-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44776</v>
+        <v>46043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5474,13 +5479,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5517,14 +5517,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 17320-2023</t>
+          <t>A 5142-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45035.54853009259</v>
+        <v>45330</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5574,14 +5574,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 5142-2024</t>
+          <t>A 20957-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45330</v>
+        <v>45061</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5631,14 +5631,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 20957-2023</t>
+          <t>A 8673-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45061</v>
+        <v>45712.4272337963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5650,8 +5650,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>0.3</v>
+        <v>9.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5688,14 +5693,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 8673-2025</t>
+          <t>A 4788-2026</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45712.4272337963</v>
+        <v>46048.56197916667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5707,13 +5712,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>9.6</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5750,14 +5750,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 2663-2026</t>
+          <t>A 59165-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46037.64071759259</v>
+        <v>44904.4783912037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>16.7</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5807,14 +5807,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 2675-2026</t>
+          <t>A 28851-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46037.64938657408</v>
+        <v>44749.47957175926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>7.3</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5864,14 +5864,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 59165-2022</t>
+          <t>A 5175-2026</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44904.4783912037</v>
+        <v>46049.64638888889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5921,14 +5921,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28851-2022</t>
+          <t>A 9120-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44749.47957175926</v>
+        <v>45713.82875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5940,8 +5940,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5978,14 +5983,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 2628-2026</t>
+          <t>A 61937-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46037.60576388889</v>
+        <v>44502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5998,7 +6003,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.1</v>
+        <v>14.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6035,14 +6040,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 9120-2025</t>
+          <t>A 60949-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45713.82875</v>
+        <v>45996</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6054,13 +6059,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>9.699999999999999</v>
+        <v>21.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6097,14 +6097,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 61937-2021</t>
+          <t>A 60969-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44502</v>
+        <v>45996</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>14.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6161,7 +6161,7 @@
         <v>45191</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6216,14 +6216,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 19294-2025</t>
+          <t>A 6893-2026</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45769.56142361111</v>
+        <v>46057.47671296296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>7.7</v>
+        <v>3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6273,14 +6273,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 19311-2025</t>
+          <t>A 7229-2026</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45769.57142361111</v>
+        <v>46058.57027777778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6330,14 +6330,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 60935-2023</t>
+          <t>A 7833-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45261</v>
+        <v>46062.64694444444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6387,14 +6387,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 32420-2023</t>
+          <t>A 19294-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45110</v>
+        <v>45769.56142361111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.3</v>
+        <v>7.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6444,14 +6444,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 32426-2023</t>
+          <t>A 19311-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45110</v>
+        <v>45769.57142361111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6501,14 +6501,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 15428-2021</t>
+          <t>A 60935-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44285</v>
+        <v>45261</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6520,13 +6520,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6563,14 +6558,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 20375-2023</t>
+          <t>A 32420-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45054</v>
+        <v>45110</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6583,7 +6578,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6620,14 +6615,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 38276-2023</t>
+          <t>A 32426-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45160</v>
+        <v>45110</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6640,7 +6635,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>18.1</v>
+        <v>3.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6677,14 +6672,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 2496-2024</t>
+          <t>A 15428-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45313</v>
+        <v>44285</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6698,11 +6693,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6739,14 +6734,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 59168-2022</t>
+          <t>A 20375-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44904.48028935185</v>
+        <v>45054</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6759,7 +6754,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6796,14 +6791,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 72530-2021</t>
+          <t>A 38276-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44546</v>
+        <v>45160</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6816,7 +6811,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>18.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6853,14 +6848,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 20960-2023</t>
+          <t>A 2496-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45061</v>
+        <v>45313</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6872,8 +6867,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6910,14 +6910,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 32424-2023</t>
+          <t>A 59168-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45110</v>
+        <v>44904.48028935185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6967,14 +6967,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 61576-2024</t>
+          <t>A 72530-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45646.6218287037</v>
+        <v>44546</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>8.9</v>
+        <v>2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7024,14 +7024,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 58619-2023</t>
+          <t>A 20960-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45251.54119212963</v>
+        <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7081,14 +7081,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 43700-2023</t>
+          <t>A 32424-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45187</v>
+        <v>45110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7138,14 +7138,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 56796-2022</t>
+          <t>A 61576-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44894.42490740741</v>
+        <v>45646.6218287037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.2</v>
+        <v>8.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7195,14 +7195,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 36181-2022</t>
+          <t>A 58619-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44803</v>
+        <v>45251.54119212963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7252,14 +7252,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 60922-2023</t>
+          <t>A 43700-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45261.40866898148</v>
+        <v>45187</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7309,14 +7309,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 273-2025</t>
+          <t>A 56796-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45653</v>
+        <v>44894.42490740741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7366,14 +7366,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 38465-2023</t>
+          <t>A 36181-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45162</v>
+        <v>44803</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7423,14 +7423,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 7214-2022</t>
+          <t>A 60922-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44606.33935185185</v>
+        <v>45261.40866898148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.5</v>
+        <v>7.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7480,14 +7480,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 11285-2023</t>
+          <t>A 273-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44992</v>
+        <v>45653</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7537,14 +7537,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 25452-2023</t>
+          <t>A 38465-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45089</v>
+        <v>45162</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7554,11 +7554,6 @@
       <c r="E113" t="inlineStr">
         <is>
           <t>SIGTUNA</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -7599,14 +7594,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 60865-2024</t>
+          <t>A 7214-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45644.69387731481</v>
+        <v>44606.33935185185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7619,7 +7614,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7656,14 +7651,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 16734-2025</t>
+          <t>A 11285-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45754.53179398148</v>
+        <v>44992</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7676,7 +7671,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7713,14 +7708,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 51770-2023</t>
+          <t>A 25452-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45222.71855324074</v>
+        <v>45089</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7732,8 +7727,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7770,14 +7770,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 31684-2022</t>
+          <t>A 60865-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44776</v>
+        <v>45644.69387731481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7789,13 +7789,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7832,14 +7827,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 35966-2024</t>
+          <t>A 16734-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45533</v>
+        <v>45754.53179398148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7852,7 +7847,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.4</v>
+        <v>7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7889,14 +7884,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 61589-2024</t>
+          <t>A 51770-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45646.62961805556</v>
+        <v>45222.71855324074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7909,7 +7904,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7946,14 +7941,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 46757-2023</t>
+          <t>A 31684-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45198</v>
+        <v>44776</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7965,8 +7960,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8003,14 +8003,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 3890-2025</t>
+          <t>A 35966-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45684.36896990741</v>
+        <v>45533</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8060,14 +8060,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 43158-2024</t>
+          <t>A 61589-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45567</v>
+        <v>45646.62961805556</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8117,14 +8117,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 24946-2024</t>
+          <t>A 46757-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45461</v>
+        <v>45198</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>12.5</v>
+        <v>5.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8174,14 +8174,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 21513-2025</t>
+          <t>A 3890-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45782.63189814815</v>
+        <v>45684.36896990741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8231,14 +8231,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 19031-2024</t>
+          <t>A 43158-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45427</v>
+        <v>45567</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8288,14 +8288,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 35961-2024</t>
+          <t>A 24946-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45533</v>
+        <v>45461</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.6</v>
+        <v>12.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8345,14 +8345,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 22402-2025</t>
+          <t>A 21513-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45786.53287037037</v>
+        <v>45782.63189814815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44621</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,14 +766,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 39620-2023</t>
+          <t>A 39613-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>45163</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,39 +786,133 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>15.2</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Talltita
+Kornig nållav
+Grönsiska
+Kungsfågel
+Vanlig padda
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39613-2023 artfynd.xlsx", "A 39613-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39613-2023 karta.png", "A 39613-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39613-2023 FSC-klagomål.docx", "A 39613-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39613-2023 FSC-klagomål mail.docx", "A 39613-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39613-2023 tillsynsbegäran.docx", "A 39613-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39613-2023 tillsynsbegäran mail.docx", "A 39613-2023")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39613-2023 prioriterade fågelarter.docx", "A 39613-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 39620-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SIGTUNA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Grönfink
 Duvhök
@@ -828,126 +922,32 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39620-2023 artfynd.xlsx", "A 39620-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39620-2023 karta.png", "A 39620-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39620-2023 FSC-klagomål.docx", "A 39620-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39620-2023 FSC-klagomål mail.docx", "A 39620-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39620-2023 tillsynsbegäran.docx", "A 39620-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39620-2023 tillsynsbegäran mail.docx", "A 39620-2023")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39620-2023 prioriterade fågelarter.docx", "A 39620-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 39613-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45163</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SIGTUNA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Talltita
-Kornig nållav
-Grönsiska
-Kungsfågel
-Vanlig padda
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39613-2023 artfynd.xlsx", "A 39613-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39613-2023 karta.png", "A 39613-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39613-2023 FSC-klagomål.docx", "A 39613-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39613-2023 FSC-klagomål mail.docx", "A 39613-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39613-2023 tillsynsbegäran.docx", "A 39613-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39613-2023 tillsynsbegäran mail.docx", "A 39613-2023")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39613-2023 prioriterade fågelarter.docx", "A 39613-2023")</f>
         <v/>
       </c>
     </row>
@@ -961,7 +961,7 @@
         <v>45607</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44265</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>45786.53068287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44791</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,14 +1318,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 64357-2023</t>
+          <t>A 3677-2026</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45280</v>
+        <v>46043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1337,13 +1337,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>6.7</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -1377,122 +1372,127 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Blåsippa
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 3677-2026 artfynd.xlsx", "A 3677-2026")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 3677-2026 karta.png", "A 3677-2026")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 3677-2026 FSC-klagomål.docx", "A 3677-2026")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 3677-2026 FSC-klagomål mail.docx", "A 3677-2026")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 3677-2026 tillsynsbegäran.docx", "A 3677-2026")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 3677-2026 tillsynsbegäran mail.docx", "A 3677-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 64357-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SIGTUNA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Grönsiska
 Pudrad kärrtrollslända</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 64357-2023 artfynd.xlsx", "A 64357-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 64357-2023 karta.png", "A 64357-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 64357-2023 FSC-klagomål.docx", "A 64357-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 64357-2023 FSC-klagomål mail.docx", "A 64357-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 64357-2023 tillsynsbegäran.docx", "A 64357-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 64357-2023 tillsynsbegäran mail.docx", "A 64357-2023")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 64357-2023 prioriterade fågelarter.docx", "A 64357-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 3677-2026</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>46043</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SIGTUNA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 3677-2026 artfynd.xlsx", "A 3677-2026")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 3677-2026 karta.png", "A 3677-2026")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 3677-2026 FSC-klagomål.docx", "A 3677-2026")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 3677-2026 FSC-klagomål mail.docx", "A 3677-2026")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 3677-2026 tillsynsbegäran.docx", "A 3677-2026")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 3677-2026 tillsynsbegäran mail.docx", "A 3677-2026")</f>
         <v/>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
         <v>45020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1593,14 +1593,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 51189-2022</t>
+          <t>A 33751-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44865</v>
+        <v>45520</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,23 +1612,28 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>32.8</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1640,52 +1645,56 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 51189-2022 artfynd.xlsx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 33751-2024 artfynd.xlsx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 51189-2022 karta.png", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 33751-2024 karta.png", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 51189-2022 FSC-klagomål.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 33751-2024 FSC-klagomål.docx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 51189-2022 FSC-klagomål mail.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 33751-2024 FSC-klagomål mail.docx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 51189-2022 tillsynsbegäran.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 33751-2024 tillsynsbegäran.docx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 51189-2022 tillsynsbegäran mail.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 33751-2024 tillsynsbegäran mail.docx", "A 33751-2024")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 33751-2024 prioriterade fågelarter.docx", "A 33751-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 64345-2023</t>
+          <t>A 39716-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45280</v>
+        <v>45166</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1698,7 +1707,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1707,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1722,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1732,49 +1741,49 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Hornuggla</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 64345-2023 artfynd.xlsx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39716-2023 artfynd.xlsx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 64345-2023 karta.png", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39716-2023 karta.png", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 64345-2023 FSC-klagomål.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39716-2023 FSC-klagomål.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 64345-2023 FSC-klagomål mail.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39716-2023 FSC-klagomål mail.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 64345-2023 tillsynsbegäran.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39716-2023 tillsynsbegäran.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 64345-2023 tillsynsbegäran mail.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39716-2023 tillsynsbegäran mail.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 64345-2023 prioriterade fågelarter.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39716-2023 prioriterade fågelarter.docx", "A 39716-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 39716-2023</t>
+          <t>A 64345-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45166</v>
+        <v>45280</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1796,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1796,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1811,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1821,49 +1830,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Hornuggla</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39716-2023 artfynd.xlsx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 64345-2023 artfynd.xlsx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39716-2023 karta.png", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 64345-2023 karta.png", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39716-2023 FSC-klagomål.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 64345-2023 FSC-klagomål.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39716-2023 FSC-klagomål mail.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 64345-2023 FSC-klagomål mail.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39716-2023 tillsynsbegäran.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 64345-2023 tillsynsbegäran.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39716-2023 tillsynsbegäran mail.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 64345-2023 tillsynsbegäran mail.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39716-2023 prioriterade fågelarter.docx", "A 39716-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 64345-2023 prioriterade fågelarter.docx", "A 64345-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 33751-2024</t>
+          <t>A 51189-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45520</v>
+        <v>44865</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,28 +1884,23 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>32.8</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1908,42 +1912,38 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 33751-2024 artfynd.xlsx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 51189-2022 artfynd.xlsx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 33751-2024 karta.png", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 51189-2022 karta.png", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 33751-2024 FSC-klagomål.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 51189-2022 FSC-klagomål.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 33751-2024 FSC-klagomål mail.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 51189-2022 FSC-klagomål mail.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 33751-2024 tillsynsbegäran.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 51189-2022 tillsynsbegäran.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 33751-2024 tillsynsbegäran mail.docx", "A 33751-2024")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 33751-2024 prioriterade fågelarter.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 51189-2022 tillsynsbegäran mail.docx", "A 51189-2022")</f>
         <v/>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
         <v>44618.61763888889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44468</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44264</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44557</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44264.31767361111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44265.30173611111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44776</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44263.32083333333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2721,14 +2721,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 25459-2023</t>
+          <t>A 58619-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45089</v>
+        <v>45251.54119212963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2740,13 +2740,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2790,7 +2785,7 @@
         <v>45211.68196759259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2840,14 +2835,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 40643-2024</t>
+          <t>A 16734-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45558</v>
+        <v>45754.53179398148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2860,7 +2855,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2897,14 +2892,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 6826-2025</t>
+          <t>A 5142-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45700.73123842593</v>
+        <v>45330</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2917,7 +2912,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2954,14 +2949,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 19031-2024</t>
+          <t>A 43158-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45427</v>
+        <v>45567</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2974,7 +2969,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3011,14 +3006,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 35961-2024</t>
+          <t>A 24946-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45533</v>
+        <v>45461</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3031,7 +3026,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.6</v>
+        <v>12.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3068,14 +3063,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 22402-2025</t>
+          <t>A 3890-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45786.53287037037</v>
+        <v>45684.36896990741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3088,7 +3083,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3125,14 +3120,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 48375-2024</t>
+          <t>A 21513-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45590.58184027778</v>
+        <v>45782.63189814815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3144,13 +3139,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3187,14 +3177,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 24105-2025</t>
+          <t>A 48375-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45796.60096064815</v>
+        <v>45590.58184027778</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3206,8 +3196,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3244,14 +3239,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 60934-2023</t>
+          <t>A 22402-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45261.42775462963</v>
+        <v>45786.53287037037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3264,7 +3259,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3301,14 +3296,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 9856-2024</t>
+          <t>A 35961-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45363</v>
+        <v>45533</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3321,7 +3316,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3358,14 +3353,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 37392-2024</t>
+          <t>A 19031-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45540</v>
+        <v>45427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3378,7 +3373,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3415,14 +3410,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 26256-2025</t>
+          <t>A 59168-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45805.58125</v>
+        <v>44904.48028935185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3435,7 +3430,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3472,14 +3467,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41949-2025</t>
+          <t>A 41841-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45903.45309027778</v>
+        <v>45902.72109953704</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3492,7 +3487,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3529,14 +3524,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 41963-2025</t>
+          <t>A 24105-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45903.47229166667</v>
+        <v>45796.60096064815</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3549,7 +3544,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3586,14 +3581,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 57871-2025</t>
+          <t>A 41957-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45981.6530787037</v>
+        <v>45903.46525462963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3606,7 +3601,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3650,7 +3645,7 @@
         <v>45903.45920138889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3700,14 +3695,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 24636-2023</t>
+          <t>A 49916-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45084</v>
+        <v>45940.62260416667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3720,7 +3715,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3757,14 +3752,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 41957-2025</t>
+          <t>A 41949-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45903.46525462963</v>
+        <v>45903.45309027778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3777,7 +3772,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3814,14 +3809,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 57879-2025</t>
+          <t>A 41963-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45981.66293981481</v>
+        <v>45903.47229166667</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3834,7 +3829,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3871,14 +3866,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 57881-2025</t>
+          <t>A 41702-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45981.66450231482</v>
+        <v>45176</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3890,8 +3885,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>8.1</v>
+        <v>1.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3928,14 +3928,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 41841-2025</t>
+          <t>A 60934-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45902.72109953704</v>
+        <v>45261.42775462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3985,14 +3985,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 10790-2023</t>
+          <t>A 26256-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44989.32980324074</v>
+        <v>45805.58125</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4042,14 +4042,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 24967-2024</t>
+          <t>A 61576-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45461</v>
+        <v>45646.6218287037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.5</v>
+        <v>8.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4099,14 +4099,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 862-2022</t>
+          <t>A 38276-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44571</v>
+        <v>45160</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.4</v>
+        <v>18.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4156,14 +4156,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 41693-2022</t>
+          <t>A 45233-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44827</v>
+        <v>45575</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4175,13 +4175,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4218,14 +4213,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 29193-2025</t>
+          <t>A 20375-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45822.70847222222</v>
+        <v>45054</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4238,7 +4233,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>7.3</v>
+        <v>2.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4282,7 +4277,7 @@
         <v>45930.60368055556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4332,14 +4327,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 12931-2022</t>
+          <t>A 51770-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44642</v>
+        <v>45222.71855324074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4351,13 +4346,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4394,14 +4384,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 74170-2021</t>
+          <t>A 29193-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44557</v>
+        <v>45822.70847222222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4414,7 +4404,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>7.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4451,14 +4441,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 49916-2025</t>
+          <t>A 59165-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45940.62260416667</v>
+        <v>44904.4783912037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,14 +4498,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 19288-2025</t>
+          <t>A 20960-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45769</v>
+        <v>45061</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4528,7 +4518,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>14.5</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4565,14 +4555,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 28752-2024</t>
+          <t>A 28851-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45478.57900462963</v>
+        <v>44749.47957175926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4585,7 +4575,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4622,14 +4612,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28681-2025</t>
+          <t>A 57879-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45819.68207175926</v>
+        <v>45981.66293981481</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4642,7 +4632,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4679,14 +4669,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 41702-2023</t>
+          <t>A 57881-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45176</v>
+        <v>45981.66450231482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4698,13 +4688,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>8.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4741,14 +4726,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 36179-2022</t>
+          <t>A 57871-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44803</v>
+        <v>45981.6530787037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4761,7 +4746,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.1</v>
+        <v>2.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4798,14 +4783,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 17286-2022</t>
+          <t>A 19288-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44678</v>
+        <v>45769</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4818,7 +4803,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.6</v>
+        <v>14.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4855,14 +4840,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 12900-2022</t>
+          <t>A 28681-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44642</v>
+        <v>45819.68207175926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4875,7 +4860,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4908,26 +4893,6 @@
         <v>0</v>
       </c>
       <c r="R67" s="2" t="inlineStr"/>
-      <c r="U67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/knärot/A 12900-2022 karta knärot.png", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="V67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 12900-2022 FSC-klagomål.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="W67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 12900-2022 FSC-klagomål mail.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="X67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 12900-2022 tillsynsbegäran.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="Y67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 12900-2022 tillsynsbegäran mail.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
     </row>
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
@@ -4939,7 +4904,7 @@
         <v>45565.64217592592</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4989,14 +4954,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 45233-2024</t>
+          <t>A 56796-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45575</v>
+        <v>44894.42490740741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5009,7 +4974,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5046,14 +5011,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 59957-2023</t>
+          <t>A 2675-2026</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45257</v>
+        <v>46037.64938657408</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5065,13 +5030,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>7.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5108,14 +5068,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 2663-2026</t>
+          <t>A 15428-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46037.64071759259</v>
+        <v>44285</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5127,8 +5087,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>16.7</v>
+        <v>4.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5165,14 +5130,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 2675-2026</t>
+          <t>A 40643-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46037.64938657408</v>
+        <v>45558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5185,7 +5150,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>7.3</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5229,7 +5194,7 @@
         <v>46037.60576388889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5279,14 +5244,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 11718-2021</t>
+          <t>A 2663-2026</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44265</v>
+        <v>46037.64071759259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5298,13 +5263,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>16.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5341,14 +5301,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 31695-2022</t>
+          <t>A 12900-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44776</v>
+        <v>44642</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5360,13 +5320,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5399,18 +5354,38 @@
         <v>0</v>
       </c>
       <c r="R75" s="2" t="inlineStr"/>
+      <c r="U75">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/knärot/A 12900-2022 karta knärot.png", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="V75">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 12900-2022 FSC-klagomål.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="W75">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 12900-2022 FSC-klagomål mail.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="X75">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 12900-2022 tillsynsbegäran.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="Y75">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 12900-2022 tillsynsbegäran mail.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 17320-2023</t>
+          <t>A 32420-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45035.54853009259</v>
+        <v>45110</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5423,7 +5398,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5460,14 +5435,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 3673-2026</t>
+          <t>A 32426-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46043</v>
+        <v>45110</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5480,7 +5455,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5517,14 +5492,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 5142-2024</t>
+          <t>A 3673-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45330</v>
+        <v>46043</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5537,7 +5512,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5574,14 +5549,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 20957-2023</t>
+          <t>A 46757-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45061</v>
+        <v>45198</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5594,7 +5569,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.3</v>
+        <v>5.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5631,14 +5606,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 8673-2025</t>
+          <t>A 10790-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45712.4272337963</v>
+        <v>44989.32980324074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5650,13 +5625,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>9.6</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5693,14 +5663,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 4788-2026</t>
+          <t>A 25452-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46048.56197916667</v>
+        <v>45089</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5712,8 +5682,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5750,14 +5725,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 59165-2022</t>
+          <t>A 25459-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44904.4783912037</v>
+        <v>45089</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5769,8 +5744,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5807,14 +5787,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28851-2022</t>
+          <t>A 61937-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44749.47957175926</v>
+        <v>44502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5827,7 +5807,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>14.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5864,14 +5844,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 5175-2026</t>
+          <t>A 4788-2026</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46049.64638888889</v>
+        <v>46048.56197916667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5884,7 +5864,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5921,14 +5901,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 9120-2025</t>
+          <t>A 5175-2026</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45713.82875</v>
+        <v>46049.64638888889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5940,13 +5920,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>9.699999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5983,14 +5958,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 61937-2021</t>
+          <t>A 19294-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44502</v>
+        <v>45769.56142361111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6003,7 +5978,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>14.7</v>
+        <v>7.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6040,14 +6015,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 60949-2025</t>
+          <t>A 60969-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
         <v>45996</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6060,7 +6035,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>21.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6097,14 +6072,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60969-2025</t>
+          <t>A 60935-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45996</v>
+        <v>45261</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6117,7 +6092,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>8.800000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6154,14 +6129,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 45319-2023</t>
+          <t>A 60949-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45191</v>
+        <v>45996</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6173,13 +6148,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>2.7</v>
+        <v>21.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6223,7 +6193,7 @@
         <v>46057.47671296296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6250,7 @@
         <v>46058.57027777778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6330,14 +6300,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 7833-2026</t>
+          <t>A 20957-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46062.64694444444</v>
+        <v>45061</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6350,7 +6320,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6387,14 +6357,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 19294-2025</t>
+          <t>A 7833-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45769.56142361111</v>
+        <v>46062.64694444444</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6407,7 +6377,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>7.7</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6444,14 +6414,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 19311-2025</t>
+          <t>A 11718-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45769.57142361111</v>
+        <v>44265</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6463,8 +6433,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>5.4</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6501,14 +6476,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 60935-2023</t>
+          <t>A 32424-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45261</v>
+        <v>45110</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6521,7 +6496,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6558,14 +6533,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 32420-2023</t>
+          <t>A 43700-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45110</v>
+        <v>45187</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6578,7 +6553,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6615,14 +6590,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 32426-2023</t>
+          <t>A 72530-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45110</v>
+        <v>44546</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6635,7 +6610,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6672,14 +6647,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 15428-2021</t>
+          <t>A 74170-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44285</v>
+        <v>44557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6691,13 +6666,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6734,14 +6704,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 20375-2023</t>
+          <t>A 17320-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45054</v>
+        <v>45035.54853009259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6754,7 +6724,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6791,14 +6761,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 38276-2023</t>
+          <t>A 7214-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45160</v>
+        <v>44606.33935185185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6811,7 +6781,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>18.1</v>
+        <v>1.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6848,14 +6818,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 2496-2024</t>
+          <t>A 45319-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45313</v>
+        <v>45191</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6869,11 +6839,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6910,14 +6880,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 59168-2022</t>
+          <t>A 17286-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44904.48028935185</v>
+        <v>44678</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6930,7 +6900,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6967,14 +6937,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 72530-2021</t>
+          <t>A 28752-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44546</v>
+        <v>45478.57900462963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6987,7 +6957,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7024,14 +6994,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 20960-2023</t>
+          <t>A 862-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45061</v>
+        <v>44571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7044,7 +7014,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7081,14 +7051,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 32424-2023</t>
+          <t>A 24636-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45110</v>
+        <v>45084</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7101,7 +7071,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7138,14 +7108,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 61576-2024</t>
+          <t>A 9856-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45646.6218287037</v>
+        <v>45363</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7158,7 +7128,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>8.9</v>
+        <v>1.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7195,14 +7165,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 58619-2023</t>
+          <t>A 273-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45251.54119212963</v>
+        <v>45653</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7215,7 +7185,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7252,14 +7222,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 43700-2023</t>
+          <t>A 31695-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45187</v>
+        <v>44776</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7271,8 +7241,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7309,14 +7284,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 56796-2022</t>
+          <t>A 59957-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44894.42490740741</v>
+        <v>45257</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7328,8 +7303,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7366,14 +7346,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 36181-2022</t>
+          <t>A 2496-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44803</v>
+        <v>45313</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7385,8 +7365,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7423,14 +7408,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 60922-2023</t>
+          <t>A 19311-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45261.40866898148</v>
+        <v>45769.57142361111</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7443,7 +7428,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7480,14 +7465,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 273-2025</t>
+          <t>A 35966-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45653</v>
+        <v>45533</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7500,7 +7485,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7537,14 +7522,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 38465-2023</t>
+          <t>A 36179-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45162</v>
+        <v>44803</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7557,7 +7542,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.7</v>
+        <v>6.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7594,14 +7579,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 7214-2022</t>
+          <t>A 36181-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44606.33935185185</v>
+        <v>44803</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7614,7 +7599,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7651,14 +7636,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 11285-2023</t>
+          <t>A 6826-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44992</v>
+        <v>45700.73123842593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7671,7 +7656,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7708,14 +7693,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 25452-2023</t>
+          <t>A 11285-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45089</v>
+        <v>44992</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7725,11 +7710,6 @@
       <c r="E116" t="inlineStr">
         <is>
           <t>SIGTUNA</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -7770,14 +7750,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 60865-2024</t>
+          <t>A 60922-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45644.69387731481</v>
+        <v>45261.40866898148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7790,7 +7770,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.2</v>
+        <v>7.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7827,14 +7807,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 16734-2025</t>
+          <t>A 12931-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45754.53179398148</v>
+        <v>44642</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7846,8 +7826,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7884,14 +7869,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 51770-2023</t>
+          <t>A 41693-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45222.71855324074</v>
+        <v>44827</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7903,8 +7888,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7941,14 +7931,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 31684-2022</t>
+          <t>A 61589-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44776</v>
+        <v>45646.62961805556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7960,13 +7950,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8003,14 +7988,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 35966-2024</t>
+          <t>A 37392-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45533</v>
+        <v>45540</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8023,7 +8008,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8060,14 +8045,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 61589-2024</t>
+          <t>A 38465-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45646.62961805556</v>
+        <v>45162</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8080,7 +8065,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8117,14 +8102,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 46757-2023</t>
+          <t>A 8673-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45198</v>
+        <v>45712.4272337963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8136,8 +8121,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>5.3</v>
+        <v>9.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8174,14 +8164,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 3890-2025</t>
+          <t>A 31684-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45684.36896990741</v>
+        <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8193,8 +8183,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8231,14 +8226,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 43158-2024</t>
+          <t>A 60865-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45567</v>
+        <v>45644.69387731481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8251,7 +8246,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8288,14 +8283,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 24946-2024</t>
+          <t>A 9120-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45461</v>
+        <v>45713.82875</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8307,8 +8302,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>12.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8345,14 +8345,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 21513-2025</t>
+          <t>A 24967-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45782.63189814815</v>
+        <v>45461</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44621</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,14 +766,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 39613-2023</t>
+          <t>A 39620-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>45163</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,39 +786,133 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>15.2</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
         <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Grönfink
+Duvhök
+Talltita
+Gröngöling
+Grönsiska
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39620-2023 artfynd.xlsx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39620-2023 karta.png", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39620-2023 FSC-klagomål.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39620-2023 FSC-klagomål mail.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39620-2023 tillsynsbegäran.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39620-2023 tillsynsbegäran mail.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39620-2023 prioriterade fågelarter.docx", "A 39620-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 39613-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SIGTUNA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Talltita
 Kornig nållav
@@ -828,126 +922,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39613-2023 artfynd.xlsx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39613-2023 karta.png", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39613-2023 FSC-klagomål.docx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39613-2023 FSC-klagomål mail.docx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39613-2023 tillsynsbegäran.docx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39613-2023 tillsynsbegäran mail.docx", "A 39613-2023")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39613-2023 prioriterade fågelarter.docx", "A 39613-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 39620-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45163</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SIGTUNA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Grönfink
-Duvhök
-Talltita
-Gröngöling
-Grönsiska
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 39620-2023 artfynd.xlsx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 39620-2023 karta.png", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 39620-2023 FSC-klagomål.docx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 39620-2023 FSC-klagomål mail.docx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 39620-2023 tillsynsbegäran.docx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 39620-2023 tillsynsbegäran mail.docx", "A 39620-2023")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 39620-2023 prioriterade fågelarter.docx", "A 39620-2023")</f>
         <v/>
       </c>
     </row>
@@ -961,7 +961,7 @@
         <v>45607</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44265</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>45786.53068287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44791</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,14 +1318,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 3677-2026</t>
+          <t>A 64357-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>46043</v>
+        <v>45280</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1337,8 +1337,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>6.7</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -1372,141 +1377,136 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Grönsiska
+Pudrad kärrtrollslända</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 64357-2023 artfynd.xlsx", "A 64357-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 64357-2023 karta.png", "A 64357-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 64357-2023 FSC-klagomål.docx", "A 64357-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 64357-2023 FSC-klagomål mail.docx", "A 64357-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 64357-2023 tillsynsbegäran.docx", "A 64357-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 64357-2023 tillsynsbegäran mail.docx", "A 64357-2023")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 64357-2023 prioriterade fågelarter.docx", "A 64357-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 3677-2026</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>46043</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SIGTUNA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa
 Gullviva</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 3677-2026 artfynd.xlsx", "A 3677-2026")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 3677-2026 karta.png", "A 3677-2026")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 3677-2026 FSC-klagomål.docx", "A 3677-2026")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 3677-2026 FSC-klagomål mail.docx", "A 3677-2026")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 3677-2026 tillsynsbegäran.docx", "A 3677-2026")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 3677-2026 tillsynsbegäran mail.docx", "A 3677-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 64357-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45280</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SIGTUNA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Grönsiska
-Pudrad kärrtrollslända</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 64357-2023 artfynd.xlsx", "A 64357-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 64357-2023 karta.png", "A 64357-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 64357-2023 FSC-klagomål.docx", "A 64357-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 64357-2023 FSC-klagomål mail.docx", "A 64357-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 64357-2023 tillsynsbegäran.docx", "A 64357-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 64357-2023 tillsynsbegäran mail.docx", "A 64357-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 64357-2023 prioriterade fågelarter.docx", "A 64357-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 15452-2023</t>
+          <t>A 51189-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45020</v>
+        <v>44865</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,23 +1518,18 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>4.5</v>
+        <v>32.8</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1548,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1558,49 +1553,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Trana</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 15452-2023 artfynd.xlsx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 51189-2022 artfynd.xlsx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 15452-2023 karta.png", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 51189-2022 karta.png", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 15452-2023 FSC-klagomål.docx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 51189-2022 FSC-klagomål.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 15452-2023 FSC-klagomål mail.docx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 51189-2022 FSC-klagomål mail.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 15452-2023 tillsynsbegäran.docx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 51189-2022 tillsynsbegäran.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 15452-2023 tillsynsbegäran mail.docx", "A 15452-2023")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 15452-2023 prioriterade fågelarter.docx", "A 15452-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 51189-2022 tillsynsbegäran mail.docx", "A 51189-2022")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 33751-2024</t>
+          <t>A 64345-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45520</v>
+        <v>45280</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,13 +1603,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1633,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1642,45 +1628,45 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 33751-2024 artfynd.xlsx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 64345-2023 artfynd.xlsx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 33751-2024 karta.png", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 64345-2023 karta.png", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 33751-2024 FSC-klagomål.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 64345-2023 FSC-klagomål.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 33751-2024 FSC-klagomål mail.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 64345-2023 FSC-klagomål mail.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 33751-2024 tillsynsbegäran.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 64345-2023 tillsynsbegäran.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 33751-2024 tillsynsbegäran mail.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 64345-2023 tillsynsbegäran mail.docx", "A 64345-2023")</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 33751-2024 prioriterade fågelarter.docx", "A 33751-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 64345-2023 prioriterade fågelarter.docx", "A 64345-2023")</f>
         <v/>
       </c>
     </row>
@@ -1694,7 +1680,7 @@
         <v>45166</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1776,14 +1762,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 64345-2023</t>
+          <t>A 33751-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45280</v>
+        <v>45520</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,8 +1781,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1811,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1820,59 +1811,59 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 64345-2023 artfynd.xlsx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 33751-2024 artfynd.xlsx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 64345-2023 karta.png", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 33751-2024 karta.png", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 64345-2023 FSC-klagomål.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 33751-2024 FSC-klagomål.docx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 64345-2023 FSC-klagomål mail.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 33751-2024 FSC-klagomål mail.docx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 64345-2023 tillsynsbegäran.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 33751-2024 tillsynsbegäran.docx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 64345-2023 tillsynsbegäran mail.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 33751-2024 tillsynsbegäran mail.docx", "A 33751-2024")</f>
         <v/>
       </c>
       <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 64345-2023 prioriterade fågelarter.docx", "A 64345-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 33751-2024 prioriterade fågelarter.docx", "A 33751-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 51189-2022</t>
+          <t>A 15452-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44865</v>
+        <v>45020</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1884,17 +1875,22 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>32.8</v>
+        <v>4.5</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1909,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1919,31 +1915,35 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Trana</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 51189-2022 artfynd.xlsx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/artfynd/A 15452-2023 artfynd.xlsx", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 51189-2022 karta.png", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/kartor/A 15452-2023 karta.png", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 51189-2022 FSC-klagomål.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 15452-2023 FSC-klagomål.docx", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 51189-2022 FSC-klagomål mail.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 15452-2023 FSC-klagomål mail.docx", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 51189-2022 tillsynsbegäran.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 15452-2023 tillsynsbegäran.docx", "A 15452-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 51189-2022 tillsynsbegäran mail.docx", "A 51189-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 15452-2023 tillsynsbegäran mail.docx", "A 15452-2023")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/fåglar/A 15452-2023 prioriterade fågelarter.docx", "A 15452-2023")</f>
         <v/>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
         <v>44618.61763888889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44468</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44264</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44557</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44264.31767361111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44265.30173611111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44776</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44263.32083333333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2721,14 +2721,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 58619-2023</t>
+          <t>A 49592-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45251.54119212963</v>
+        <v>45211.68196759259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2778,14 +2778,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 49592-2023</t>
+          <t>A 40643-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45211.68196759259</v>
+        <v>45558</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2835,14 +2835,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 16734-2025</t>
+          <t>A 6826-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45754.53179398148</v>
+        <v>45700.73123842593</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2892,14 +2892,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 5142-2024</t>
+          <t>A 25459-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45330</v>
+        <v>45089</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2911,8 +2911,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2949,14 +2954,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 43158-2024</t>
+          <t>A 9856-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45567</v>
+        <v>45363</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2969,7 +2974,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3006,14 +3011,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 24946-2024</t>
+          <t>A 37392-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45461</v>
+        <v>45540</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3026,7 +3031,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>12.5</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3063,14 +3068,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 3890-2025</t>
+          <t>A 24636-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45684.36896990741</v>
+        <v>45084</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3083,7 +3088,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3120,14 +3125,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 21513-2025</t>
+          <t>A 24967-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45782.63189814815</v>
+        <v>45461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3140,7 +3145,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3177,14 +3182,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 48375-2024</t>
+          <t>A 10790-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45590.58184027778</v>
+        <v>44989.32980324074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3196,13 +3201,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3239,14 +3239,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 22402-2025</t>
+          <t>A 862-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45786.53287037037</v>
+        <v>44571</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3296,14 +3296,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 35961-2024</t>
+          <t>A 41693-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45533</v>
+        <v>44827</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3315,8 +3315,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3353,14 +3358,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 19031-2024</t>
+          <t>A 29193-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45427</v>
+        <v>45822.70847222222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3373,7 +3378,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.7</v>
+        <v>7.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3410,14 +3415,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 59168-2022</t>
+          <t>A 12931-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44904.48028935185</v>
+        <v>44642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3429,8 +3434,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3467,14 +3477,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41841-2025</t>
+          <t>A 74170-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45902.72109953704</v>
+        <v>44557</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3487,7 +3497,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3524,14 +3534,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 24105-2025</t>
+          <t>A 41949-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45796.60096064815</v>
+        <v>45903.45309027778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3544,7 +3554,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3581,14 +3591,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 41957-2025</t>
+          <t>A 41963-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45903.46525462963</v>
+        <v>45903.47229166667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3601,7 +3611,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3645,7 +3655,7 @@
         <v>45903.45920138889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3695,14 +3705,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 49916-2025</t>
+          <t>A 41957-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45940.62260416667</v>
+        <v>45903.46525462963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3715,7 +3725,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3752,14 +3762,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 41949-2025</t>
+          <t>A 41841-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45903.45309027778</v>
+        <v>45902.72109953704</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3772,7 +3782,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3809,14 +3819,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 41963-2025</t>
+          <t>A 28752-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45903.47229166667</v>
+        <v>45478.57900462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3829,7 +3839,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3873,7 +3883,7 @@
         <v>45176</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3928,14 +3938,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 60934-2023</t>
+          <t>A 28681-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45261.42775462963</v>
+        <v>45819.68207175926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3948,7 +3958,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>7.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3985,14 +3995,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 26256-2025</t>
+          <t>A 36179-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45805.58125</v>
+        <v>44803</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4005,7 +4015,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4042,14 +4052,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 61576-2024</t>
+          <t>A 17286-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45646.6218287037</v>
+        <v>44678</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4062,7 +4072,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>8.9</v>
+        <v>3.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4099,14 +4109,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38276-2023</t>
+          <t>A 47392-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45160</v>
+        <v>45930.60368055556</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4119,7 +4129,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>18.1</v>
+        <v>3.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4156,14 +4166,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 45233-2024</t>
+          <t>A 42572-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45575</v>
+        <v>45565.64217592592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4176,7 +4186,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4213,14 +4223,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 20375-2023</t>
+          <t>A 45233-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45054</v>
+        <v>45575</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4233,7 +4243,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4270,14 +4280,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 47392-2025</t>
+          <t>A 59957-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45930.60368055556</v>
+        <v>45257</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4289,8 +4299,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4327,14 +4342,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 51770-2023</t>
+          <t>A 12900-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45222.71855324074</v>
+        <v>44642</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4347,7 +4362,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4380,18 +4395,38 @@
         <v>0</v>
       </c>
       <c r="R58" s="2" t="inlineStr"/>
+      <c r="U58">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/knärot/A 12900-2022 karta knärot.png", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="V58">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 12900-2022 FSC-klagomål.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="W58">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 12900-2022 FSC-klagomål mail.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="X58">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 12900-2022 tillsynsbegäran.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
+      <c r="Y58">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 12900-2022 tillsynsbegäran mail.docx", "A 12900-2022")</f>
+        <v/>
+      </c>
     </row>
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 29193-2025</t>
+          <t>A 11718-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45822.70847222222</v>
+        <v>44265</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4403,8 +4438,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>7.3</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4441,14 +4481,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 59165-2022</t>
+          <t>A 49916-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44904.4783912037</v>
+        <v>45940.62260416667</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4498,14 +4538,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 20960-2023</t>
+          <t>A 31695-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45061</v>
+        <v>44776</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,8 +4557,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4555,14 +4600,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 28851-2022</t>
+          <t>A 17320-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44749.47957175926</v>
+        <v>45035.54853009259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4575,7 +4620,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4612,14 +4657,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 57879-2025</t>
+          <t>A 5142-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45981.66293981481</v>
+        <v>45330</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4632,7 +4677,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4669,14 +4714,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 57881-2025</t>
+          <t>A 20957-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45981.66450231482</v>
+        <v>45061</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4689,7 +4734,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>8.1</v>
+        <v>0.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4726,14 +4771,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 57871-2025</t>
+          <t>A 8673-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45981.6530787037</v>
+        <v>45712.4272337963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4745,8 +4790,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>2.7</v>
+        <v>9.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4783,14 +4833,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 19288-2025</t>
+          <t>A 59165-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45769</v>
+        <v>44904.4783912037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4803,7 +4853,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>14.5</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4840,14 +4890,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 28681-2025</t>
+          <t>A 28851-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45819.68207175926</v>
+        <v>44749.47957175926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4860,7 +4910,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4897,14 +4947,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42572-2024</t>
+          <t>A 9120-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45565.64217592592</v>
+        <v>45713.82875</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4916,8 +4966,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>2.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4954,14 +5009,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 56796-2022</t>
+          <t>A 61937-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44894.42490740741</v>
+        <v>44502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4974,7 +5029,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>5.2</v>
+        <v>14.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5011,14 +5066,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 2675-2026</t>
+          <t>A 45319-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>46037.64938657408</v>
+        <v>45191</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5030,8 +5085,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>7.3</v>
+        <v>2.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5068,14 +5128,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 15428-2021</t>
+          <t>A 57871-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44285</v>
+        <v>45981.6530787037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5087,13 +5147,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5130,14 +5185,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 40643-2024</t>
+          <t>A 57879-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45558</v>
+        <v>45981.66293981481</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5150,7 +5205,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5187,14 +5242,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 2628-2026</t>
+          <t>A 57881-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>46037.60576388889</v>
+        <v>45981.66450231482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5207,7 +5262,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>8.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5244,14 +5299,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 2663-2026</t>
+          <t>A 19288-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>46037.64071759259</v>
+        <v>45769</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5264,7 +5319,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>16.7</v>
+        <v>14.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5301,14 +5356,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 12900-2022</t>
+          <t>A 19294-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44642</v>
+        <v>45769.56142361111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5321,7 +5376,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.6</v>
+        <v>7.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5354,38 +5409,18 @@
         <v>0</v>
       </c>
       <c r="R75" s="2" t="inlineStr"/>
-      <c r="U75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/knärot/A 12900-2022 karta knärot.png", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="V75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomål/A 12900-2022 FSC-klagomål.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="W75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/klagomålsmail/A 12900-2022 FSC-klagomål mail.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="X75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsyn/A 12900-2022 tillsynsbegäran.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
-      <c r="Y75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0191/tillsynsmail/A 12900-2022 tillsynsbegäran mail.docx", "A 12900-2022")</f>
-        <v/>
-      </c>
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 32420-2023</t>
+          <t>A 19311-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45110</v>
+        <v>45769.57142361111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5398,7 +5433,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5435,14 +5470,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 32426-2023</t>
+          <t>A 2663-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45110</v>
+        <v>46037.64071759259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5455,7 +5490,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.1</v>
+        <v>16.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5492,14 +5527,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 3673-2026</t>
+          <t>A 2675-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46043</v>
+        <v>46037.64938657408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5512,7 +5547,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.8</v>
+        <v>7.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5549,14 +5584,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 46757-2023</t>
+          <t>A 2628-2026</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45198</v>
+        <v>46037.60576388889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5569,7 +5604,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5606,14 +5641,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 10790-2023</t>
+          <t>A 60935-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44989.32980324074</v>
+        <v>45261</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5626,7 +5661,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5663,14 +5698,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25452-2023</t>
+          <t>A 32420-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45089</v>
+        <v>45110</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5682,13 +5717,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5725,14 +5755,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 25459-2023</t>
+          <t>A 32426-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45089</v>
+        <v>45110</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5744,13 +5774,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5787,14 +5812,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 61937-2021</t>
+          <t>A 15428-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44502</v>
+        <v>44285</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5806,8 +5831,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>14.7</v>
+        <v>4.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5844,14 +5874,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4788-2026</t>
+          <t>A 3673-2026</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46048.56197916667</v>
+        <v>46043</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5864,7 +5894,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5901,14 +5931,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 5175-2026</t>
+          <t>A 4788-2026</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46049.64638888889</v>
+        <v>46048.56197916667</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5921,7 +5951,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5958,14 +5988,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 19294-2025</t>
+          <t>A 5175-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45769.56142361111</v>
+        <v>46049.64638888889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5978,7 +6008,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>7.7</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6015,14 +6045,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 60969-2025</t>
+          <t>A 20375-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45996</v>
+        <v>45054</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6035,7 +6065,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>8.800000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6072,14 +6102,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60935-2023</t>
+          <t>A 60949-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45261</v>
+        <v>45996</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6092,7 +6122,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.4</v>
+        <v>21.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6129,14 +6159,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 60949-2025</t>
+          <t>A 60969-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
         <v>45996</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6149,7 +6179,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>21.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6186,14 +6216,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 6893-2026</t>
+          <t>A 38276-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46057.47671296296</v>
+        <v>45160</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6206,7 +6236,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>18.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6243,14 +6273,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 7229-2026</t>
+          <t>A 2496-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46058.57027777778</v>
+        <v>45313</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6262,8 +6292,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6300,14 +6335,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 20957-2023</t>
+          <t>A 59168-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45061</v>
+        <v>44904.48028935185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6320,7 +6355,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6357,14 +6392,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 7833-2026</t>
+          <t>A 72530-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46062.64694444444</v>
+        <v>44546</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6377,7 +6412,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6414,14 +6449,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 11718-2021</t>
+          <t>A 6893-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44265</v>
+        <v>46057.47671296296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6433,13 +6468,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6476,14 +6506,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 32424-2023</t>
+          <t>A 7229-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45110</v>
+        <v>46058.57027777778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6496,7 +6526,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6533,14 +6563,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43700-2023</t>
+          <t>A 7833-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45187</v>
+        <v>46062.64694444444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6553,7 +6583,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6590,14 +6620,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 72530-2021</t>
+          <t>A 20960-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44546</v>
+        <v>45061</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6610,7 +6640,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6647,14 +6677,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 74170-2021</t>
+          <t>A 32424-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44557</v>
+        <v>45110</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6667,7 +6697,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6704,14 +6734,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 17320-2023</t>
+          <t>A 61576-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45035.54853009259</v>
+        <v>45646.6218287037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6724,7 +6754,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>8.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6761,14 +6791,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 7214-2022</t>
+          <t>A 58619-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44606.33935185185</v>
+        <v>45251.54119212963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6781,7 +6811,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6818,14 +6848,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 45319-2023</t>
+          <t>A 43700-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45191</v>
+        <v>45187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6837,13 +6867,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6880,14 +6905,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 17286-2022</t>
+          <t>A 56796-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44678</v>
+        <v>44894.42490740741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6900,7 +6925,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6937,14 +6962,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 28752-2024</t>
+          <t>A 36181-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45478.57900462963</v>
+        <v>44803</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6994,14 +7019,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 862-2022</t>
+          <t>A 60922-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44571</v>
+        <v>45261.40866898148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7014,7 +7039,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.4</v>
+        <v>7.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7051,14 +7076,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 24636-2023</t>
+          <t>A 273-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45084</v>
+        <v>45653</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7071,7 +7096,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7108,14 +7133,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 9856-2024</t>
+          <t>A 38465-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45363</v>
+        <v>45162</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7128,7 +7153,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7165,14 +7190,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 273-2025</t>
+          <t>A 7214-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45653</v>
+        <v>44606.33935185185</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7185,7 +7210,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7222,14 +7247,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 31695-2022</t>
+          <t>A 11285-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44776</v>
+        <v>44992</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7241,13 +7266,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7284,14 +7304,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 59957-2023</t>
+          <t>A 25452-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45257</v>
+        <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7309,7 +7329,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7346,14 +7366,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 2496-2024</t>
+          <t>A 60865-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45313</v>
+        <v>45644.69387731481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7365,13 +7385,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7408,14 +7423,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 19311-2025</t>
+          <t>A 16734-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45769.57142361111</v>
+        <v>45754.53179398148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7428,7 +7443,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7465,14 +7480,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 35966-2024</t>
+          <t>A 51770-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45533</v>
+        <v>45222.71855324074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7485,7 +7500,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7522,14 +7537,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 36179-2022</t>
+          <t>A 31684-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44803</v>
+        <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7541,8 +7556,13 @@
           <t>SIGTUNA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>6.1</v>
+        <v>2.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7579,14 +7599,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 36181-2022</t>
+          <t>A 35966-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44803</v>
+        <v>45533</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7599,7 +7619,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7636,14 +7656,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 6826-2025</t>
+          <t>A 61589-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45700.73123842593</v>
+        <v>45646.62961805556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7656,7 +7676,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7693,14 +7713,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 11285-2023</t>
+          <t>A 46757-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44992</v>
+        <v>45198</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7713,7 +7733,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7750,14 +7770,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 60922-2023</t>
+          <t>A 3890-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45261.40866898148</v>
+        <v>45684.36896990741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7770,7 +7790,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>7.6</v>
+        <v>2.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7807,14 +7827,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 12931-2022</t>
+          <t>A 43158-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44642</v>
+        <v>45567</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7826,13 +7846,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7869,14 +7884,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 41693-2022</t>
+          <t>A 24946-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44827</v>
+        <v>45461</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7888,13 +7903,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>12.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7931,14 +7941,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 61589-2024</t>
+          <t>A 21513-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45646.62961805556</v>
+        <v>45782.63189814815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7951,7 +7961,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7988,14 +7998,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 37392-2024</t>
+          <t>A 19031-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45540</v>
+        <v>45427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8008,7 +8018,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8045,14 +8055,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 38465-2023</t>
+          <t>A 35961-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45162</v>
+        <v>45533</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8065,7 +8075,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8102,14 +8112,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 8673-2025</t>
+          <t>A 22402-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45712.4272337963</v>
+        <v>45786.53287037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8121,13 +8131,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>9.6</v>
+        <v>4.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8164,14 +8169,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 31684-2022</t>
+          <t>A 48375-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44776</v>
+        <v>45590.58184027778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8185,11 +8190,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8226,14 +8231,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 60865-2024</t>
+          <t>A 24105-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45644.69387731481</v>
+        <v>45796.60096064815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8246,7 +8251,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8283,14 +8288,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 9120-2025</t>
+          <t>A 60934-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45713.82875</v>
+        <v>45261.42775462963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8302,13 +8307,8 @@
           <t>SIGTUNA</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>9.699999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8345,14 +8345,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 24967-2024</t>
+          <t>A 26256-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45461</v>
+        <v>45805.58125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44621</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>45163</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>45607</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>44265</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>45786.53068287037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44791</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>45280</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>46043</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>44865</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45280</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>45166</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45520</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>45020</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>44618.61763888889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44468</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44264</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44557</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44264.31767361111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44265.30173611111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44776</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44263.32083333333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>45211.68196759259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>45558</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>45700.73123842593</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45089</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>45363</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>45540</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45084</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>45461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44989.32980324074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44571</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44827</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>45822.70847222222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44642</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>44557</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>45903.45309027778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45903.47229166667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45903.45920138889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45903.46525462963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45902.72109953704</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45478.57900462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45176</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45819.68207175926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>44803</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>44678</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45930.60368055556</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45565.64217592592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45575</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45257</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44642</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44265</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45940.62260416667</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>44776</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45035.54853009259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45330</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45061</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45712.4272337963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44904.4783912037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44749.47957175926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>45713.82875</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>44502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>45191</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45981.6530787037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45981.66293981481</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45981.66450231482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45769</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>45769.56142361111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45769.57142361111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>46037.64071759259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>46037.64938657408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>46037.60576388889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45261</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45110</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45110</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>44285</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>46043</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>46048.56197916667</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>46049.64638888889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>45054</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>45996</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>45996</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45160</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45313</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44904.48028935185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44546</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>46057.47671296296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>46058.57027777778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>46062.64694444444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>45061</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>45110</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>45646.6218287037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>45251.54119212963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>45187</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>44894.42490740741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>44803</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>45261.40866898148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>45653</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>45162</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44606.33935185185</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44992</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>45644.69387731481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>45754.53179398148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>45222.71855324074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>45533</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>45646.62961805556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>45198</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45684.36896990741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45567</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>45461</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>45782.63189814815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>45427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>45533</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>45786.53287037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>45590.58184027778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>45796.60096064815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>45261.42775462963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>45805.58125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
